--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -16,14 +16,14 @@
     <sheet name="지자체자연휴양림" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">지자체자연휴양림!$A$1:$H$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">지자체자연휴양림!$A$1:$I$101</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="881">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -2477,680 +2477,684 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_layout.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/forest/images/contents/cts1814_map.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/forest/contents.do?key=1805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/forest/contents.do?key=1804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/forest/contents.do?key=1813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/forest/images/contents/cts1804_img07.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.eumseong.go.kr/forest/images/contents/cts1805_img05.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bwmt.gwangyang.go.kr/bmt/img/pic/img_forest_facilities_010302.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bwmt.gwangyang.go.kr/bmt/img/pic/allmap.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bongsoosan.com/images/utilization/siteplan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bongsoosan.com/images/facilities/gallery2/img2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ok.yeosu.go.kr/home/yeosu/ok/img/sub/house3_7.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ok.yeosu.go.kr/home/site/OKONLINE/img/sub/2016map_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bhf.cj100.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bhf.cj100.net/images/utilzation/util_map.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%86%8C%EB%82%98%EB%AC%B4%EA%B3%A8%20(2).jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불정자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mgtpcr.or.kr/web/page.do?menuIdx=371</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mgtpcr.or.kr/web/resources/images/sub/010101img03.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.mgtpcr.or.kr/web/resources/images/sub/img_forest_guide.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/redforest/redintro.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://healing.seogwipo.go.kr/files/editor/a1d782e0-58cd-4f66-9c9c-a62d427490eb.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비슬산자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dssiseol.or.kr/pages/sisul/page.html?mc=1029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dssiseol.or.kr/images/siseol/temp/temp_biseol.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구광역시 달성군 유가면 일연선사길 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>053-659-4400~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>054-252-3275</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dssiseol.or.kr/images/yeyak/temp/img_bisl_sisulchart.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dssiseol.or.kr/images/yeyak/temp/img_hwawon_sisulchart.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dssiseol.or.kr/pages/sisul/page.html?mc=1042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.dssiseol.or.kr/images/siseol/temp/temp_whawonnatural_view.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.ipohang.org/img/intro/info.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.ipohang.org/prod_pic/5_1498025364.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hysansam.or.kr/image/sansam_img_1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hysansam.or.kr/image/sansam_img_1_7.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://rest.jincheon.go.kr/images/utilization/siteplan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://rest.jincheon.go.kr/images/introduce/visual.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.ganghwa.go.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.ganghwa.go.kr/img/sub/map.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.ganghwa.go.kr/img/sub/house.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.seongbulsan.kr/images/utilization/siteplan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.seongbulsan.kr/images/common/submain01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://seongjubong.sangju.go.kr/img/introduce/infoimg2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://seongjubong.sangju.go.kr/img/introduce/about_a02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.brcn.go.kr/images/specific/forest/sub1/intr_05_001.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.brcn.go.kr/images/specific/forest/sub2/map0201_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://smhu.imsil.go.kr/upload_data/board_data/DETAIL_INFORMATION/146353936523630.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://smhu.imsil.go.kr/upload_data/board_data/BBS_0000004/143510665977160.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sof.cbhuyang.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sof.cbhuyang.go.kr/img/plan_map.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://sof.cbhuyang.go.kr/img/tab/100_01.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.songivalley.co.kr:454/images/utilization/siteplan2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.songivalley.co.kr:454/images/utilization/siteplan3.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.songjeong.go.kr/img/sub/02_01_bigmap.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.songjeong.go.kr/img/sub/c02_03_img01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sudosanhuyang.gc.go.kr:455/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sudosanhuyang.gc.go.kr:455/images/utilization/siteplan2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sudosanhuyang.gc.go.kr:455/images/facilities/gallery5/img1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.suncheon.go.kr/yeyak/stay/huyang/main/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://main.suncheon.go.kr/images/suncheon/tour/sub/hu03.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://main.suncheon.go.kr/images/suncheon/tour/sub/hu01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://huyang.gb.go.kr/images/information/map_02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://huyang.gb.go.kr/board/files/inno_4/DSC08460.JPG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.anmyonhuyang.go.kr:453/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.anmyonhuyang.go.kr:453/images/utilization/map.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.anmyonhuyang.go.kr:453/board/files/inno_4/20160906_094910%20%ED%99%94%EB%AA%A9%EB%8F%99%20%EC%A0%84%EA%B2%BD.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gtdc.or.kr/v2.1/img/business/forestLodge/img_top.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">033-644-9483 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임해자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gtdc.or.kr/images/page/fac2_img02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yangchonhuyang.net:458/images/facilities/map2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yangchonhuyang.net:458/board/files/inno_5/%EC%96%91%EC%B4%8C%EC%9E%90%EC%97%B0%ED%9C%B4%EC%96%91%EB%A6%BC-%EC%88%B2%EC%86%8D%ED%9C%B4%EC%96%91%EA%B4%80.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.asanfmc.or.kr/forest/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.asanfmc.or.kr/forest/images/forest_img_04.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.asanfmc.or.kr/forest/images/forest_img_20180404.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ohdosan.hc.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ohdosan.hc.go.kr/img/sub/c12_pic01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ohdosan.hc.go.kr/img/sub/c21_map.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gumihy.com/cure/pop_f.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gumihy.com/board/file/1209702306.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://okhwa.cheongju.go.kr/www/images/contents/cts329.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://okhwa.cheongju.go.kr/DATA/bbs/1/20161201043324107utpbWt.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jangsuhuyang.kr/Waryong/img/facility/facility_layout_large.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jangsuhuyang.kr/Waryong/img/facility/ab_overview_primg03.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.jeonnam.go.kr/theme/forest/images/contents/images/03_01i.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.jeonnam.go.kr/data/room/room1-2_4.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ypforest.com/contents/swi3_img/swi3b_img093.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.swijapark.com/contents/swi3_photo2/swiphoto_002.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yongbong.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yongbong.go.kr/upload/basicG//20120807110149214.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yongbong.go.kr/upload/naverphoto/2012102012-10-31141931.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yonginforest.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yonginforest.net/vr/indexdata/floorplan/map1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.yonginforest.net/fileupdown/000001/board/M0000060/IMG150430071130.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.yongchoo.or.kr/image/1_5all_new1.jpg</t>
+  </si>
+  <si>
+    <t>http://www.yongchoo.or.kr/image/subpage_1_4c.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://unjusan.yc.go.kr/img/02/01_01_img04_20160108.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://unjusan.yc.go.kr/img/02/photo/03_01_bimg04.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jangheung.go.kr/contents/12839/gm_img14.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jangheung.go.kr/contents/12833/yuchi_intro02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jaf.cbhuyang.go.kr/images/jrhuyang/guide/guide_02_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jaf.cbhuyang.go.kr/images/jrhuyang/facilities/faci0201_0107.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jangtaesan.or.kr:454/images/utilization/siteplan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jangtaesan.or.kr:454/images/main/visual01.jpg</t>
+  </si>
+  <si>
+    <t>http://www.jeamsan.go.kr/images/sub/01_04_re.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jeamsan.go.kr/imagesN/sub/01_04_02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jof.cbhuyang.go.kr:455/images/utilzation/util_map.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jof.cbhuyang.go.kr:455/images/facilities/gallery11/dImg/room0/img0.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jwagu.jp.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jwagu.jp.go.kr/images/huyang/siteplan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jwagu.jp.go.kr/images/common/svisual01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jujaksan.com/img/facility/jujaksan_info_map_b.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jujaksan.com/img/bloom/wimg.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://집다리골.kr/images/sub/room/img_1_1_p1b.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://csforest.cs.go.kr/board/data/editor/1505/20150527175728_qwpmatwq.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://csforest.cs.go.kr/board/data/csphoto/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccforest.or.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ccforest.or.kr/img/p1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://alpshuyang.boeun.go.kr/images/utilzation/util_map.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img11.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://member.nfcf.or.kr/chiak/images/contents/img_fct0102.gif</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://member.nfcf.or.kr/chiak/images/contents/img_fct0203_01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>041-940-2428~9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chilgap.cheongyang.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chilgap.cheongyang.go.kr/images/utilization/facmap.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gpfmc.or.kr/kalbong/images/contents/img_sub2_1_1.png?12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gpfmc.or.kr/upfiles/board/sisul_kal/71211_1385645847.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://forest.taebaek.go.kr/up/board/1500623949-KakaoTalk_20170721_142953701.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://rest.gyeongju.go.kr/img/02_Menu/cont01_img01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://rest.gyeongju.go.kr/img/01_Menu/cont02_img02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://palgong.gb.go.kr/images/utilization/generalInfo/airview.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://singihan.goheung.go.kr/images/sub/img020201__.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://palgong.gb.go.kr/upload/p1ajp5gf1p14qh12l31vm8168s9km1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://singihan.goheung.go.kr/images/sub/img0201_1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forest700.or.kr:10462/img/sub/sub14_img.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://forest700.or.kr:10462/data/file/comm2/thumb-599170908_nDOfVxZJ_03_670x447.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hachuhuyang.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hachuhuyang.go.kr/images/facility/facility_i01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hachuhuyang.go.kr/images/intro/intro_i01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://huyang.sancheong.go.kr/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://huyang.sancheong.go.kr/IMAGE/sub/room/img1_11l.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://huyang.sancheong.go.kr/IMAGE/sub/img1_2b.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hwawang.or.kr/img/sub/02/c02_01_img01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.hwawang.or.kr/img/sub/02/c02_02_01_img13.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://heungrimsan.yyg.go.kr:453/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://heungrimsan.yyg.go.kr:453/images/facilities/gallery1/img0.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://heungrimsan.yyg.go.kr:453/images/utilization/siteplan.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jsoup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R011</t>
+  </si>
+  <si>
+    <t>R012</t>
+  </si>
+  <si>
+    <t>인터파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ypforest.com/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R008</t>
+  </si>
+  <si>
+    <t>R016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남이자연휴양림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R001</t>
+  </si>
+  <si>
+    <t>R002</t>
+  </si>
+  <si>
+    <t>R004</t>
+  </si>
+  <si>
+    <t>R005</t>
+  </si>
+  <si>
+    <t>R006</t>
+  </si>
+  <si>
+    <t>R013</t>
+  </si>
+  <si>
+    <t>R014</t>
+  </si>
+  <si>
+    <t>R003</t>
+  </si>
+  <si>
+    <t>R007</t>
+  </si>
+  <si>
+    <t>R009</t>
+  </si>
+  <si>
+    <t>R010</t>
+  </si>
+  <si>
     <t>http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_layout.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eumseong.go.kr/forest/images/contents/cts1814_map.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eumseong.go.kr/forest/contents.do?key=1805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eumseong.go.kr/forest/contents.do?key=1804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eumseong.go.kr/forest/contents.do?key=1813</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eumseong.go.kr/forest/images/contents/cts1804_img07.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.eumseong.go.kr/forest/images/contents/cts1805_img05.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bwmt.gwangyang.go.kr/bmt/img/pic/img_forest_facilities_010302.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bwmt.gwangyang.go.kr/bmt/img/pic/allmap.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.bongsoosan.com/images/utilization/siteplan.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.bongsoosan.com/images/facilities/gallery2/img2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ok.yeosu.go.kr/home/yeosu/ok/img/sub/house3_7.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ok.yeosu.go.kr/home/site/OKONLINE/img/sub/2016map_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bhf.cj100.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bhf.cj100.net/images/utilzation/util_map.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://bhf.cj100.net/board/files/inno_5/%EB%B4%89%ED%99%A9%ED%9C%B4%EC%96%91%EB%A6%BC%20%EC%86%8C%EB%82%98%EB%AC%B4%EA%B3%A8%20(2).jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불정자연휴양림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.mgtpcr.or.kr/web/page.do?menuIdx=371</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.mgtpcr.or.kr/web/resources/images/sub/010101img03.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.mgtpcr.or.kr/web/resources/images/sub/img_forest_guide.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://healing.seogwipo.go.kr/redforest/redintro.htm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://healing.seogwipo.go.kr/files/editor/a1d782e0-58cd-4f66-9c9c-a62d427490eb.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비슬산자연휴양림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.dssiseol.or.kr/pages/sisul/page.html?mc=1029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.dssiseol.or.kr/images/siseol/temp/temp_biseol.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구광역시 달성군 유가면 일연선사길 99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>053-659-4400~1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>054-252-3275</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.dssiseol.or.kr/images/yeyak/temp/img_bisl_sisulchart.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.dssiseol.or.kr/images/yeyak/temp/img_hwawon_sisulchart.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.dssiseol.or.kr/pages/sisul/page.html?mc=1042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.dssiseol.or.kr/images/siseol/temp/temp_whawonnatural_view.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.ipohang.org/img/intro/info.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.ipohang.org/prod_pic/5_1498025364.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hysansam.or.kr/image/sansam_img_1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hysansam.or.kr/image/sansam_img_1_7.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://rest.jincheon.go.kr/images/utilization/siteplan.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://rest.jincheon.go.kr/images/introduce/visual.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.ganghwa.go.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.ganghwa.go.kr/img/sub/map.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.ganghwa.go.kr/img/sub/house.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.seongbulsan.kr/images/utilization/siteplan.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.seongbulsan.kr/images/common/submain01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://seongjubong.sangju.go.kr/img/introduce/infoimg2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://seongjubong.sangju.go.kr/img/introduce/about_a02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.brcn.go.kr/images/specific/forest/sub1/intr_05_001.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.brcn.go.kr/images/specific/forest/sub2/map0201_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://smhu.imsil.go.kr/upload_data/board_data/DETAIL_INFORMATION/146353936523630.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://smhu.imsil.go.kr/upload_data/board_data/BBS_0000004/143510665977160.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sof.cbhuyang.go.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sof.cbhuyang.go.kr/img/plan_map.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://sof.cbhuyang.go.kr/img/tab/100_01.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.songivalley.co.kr:454/images/utilization/siteplan2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.songivalley.co.kr:454/images/utilization/siteplan3.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.songjeong.go.kr/img/sub/02_01_bigmap.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.songjeong.go.kr/img/sub/c02_03_img01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sudosanhuyang.gc.go.kr:455/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sudosanhuyang.gc.go.kr:455/images/utilization/siteplan2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sudosanhuyang.gc.go.kr:455/images/facilities/gallery5/img1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.suncheon.go.kr/yeyak/stay/huyang/main/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://main.suncheon.go.kr/images/suncheon/tour/sub/hu03.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://main.suncheon.go.kr/images/suncheon/tour/sub/hu01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://huyang.gb.go.kr/images/information/map_02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://huyang.gb.go.kr/board/files/inno_4/DSC08460.JPG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.anmyonhuyang.go.kr:453/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.anmyonhuyang.go.kr:453/images/utilization/map.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.anmyonhuyang.go.kr:453/board/files/inno_4/20160906_094910%20%ED%99%94%EB%AA%A9%EB%8F%99%20%EC%A0%84%EA%B2%BD.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gtdc.or.kr/v2.1/img/business/forestLodge/img_top.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">033-644-9483 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임해자연휴양림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gtdc.or.kr/images/page/fac2_img02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.yangchonhuyang.net:458/images/facilities/map2.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.yangchonhuyang.net:458/board/files/inno_5/%EC%96%91%EC%B4%8C%EC%9E%90%EC%97%B0%ED%9C%B4%EC%96%91%EB%A6%BC-%EC%88%B2%EC%86%8D%ED%9C%B4%EC%96%91%EA%B4%80.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.asanfmc.or.kr/forest/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.asanfmc.or.kr/forest/images/forest_img_04.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.asanfmc.or.kr/forest/images/forest_img_20180404.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ohdosan.hc.go.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ohdosan.hc.go.kr/img/sub/c12_pic01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://ohdosan.hc.go.kr/img/sub/c21_map.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gumihy.com/cure/pop_f.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gumihy.com/board/file/1209702306.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://okhwa.cheongju.go.kr/www/images/contents/cts329.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://okhwa.cheongju.go.kr/DATA/bbs/1/20161201043324107utpbWt.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jangsuhuyang.kr/Waryong/img/facility/facility_layout_large.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jangsuhuyang.kr/Waryong/img/facility/ab_overview_primg03.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.jeonnam.go.kr/theme/forest/images/contents/images/03_01i.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.jeonnam.go.kr/data/room/room1-2_4.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ypforest.com/contents/swi3_img/swi3b_img093.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.swijapark.com/contents/swi3_photo2/swiphoto_002.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.yongbong.go.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.yongbong.go.kr/upload/basicG//20120807110149214.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.yongbong.go.kr/upload/naverphoto/2012102012-10-31141931.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.yonginforest.net/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.yonginforest.net/vr/indexdata/floorplan/map1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.yonginforest.net/fileupdown/000001/board/M0000060/IMG150430071130.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.yongchoo.or.kr/image/1_5all_new1.jpg</t>
-  </si>
-  <si>
-    <t>http://www.yongchoo.or.kr/image/subpage_1_4c.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://unjusan.yc.go.kr/img/02/01_01_img04_20160108.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://unjusan.yc.go.kr/img/02/photo/03_01_bimg04.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jangheung.go.kr/contents/12839/gm_img14.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jangheung.go.kr/contents/12833/yuchi_intro02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jaf.cbhuyang.go.kr/images/jrhuyang/guide/guide_02_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jaf.cbhuyang.go.kr/images/jrhuyang/facilities/faci0201_0107.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jangtaesan.or.kr:454/images/utilization/siteplan.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.jangtaesan.or.kr:454/images/main/visual01.jpg</t>
-  </si>
-  <si>
-    <t>http://www.jeamsan.go.kr/images/sub/01_04_re.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jeamsan.go.kr/imagesN/sub/01_04_02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jof.cbhuyang.go.kr:455/images/utilzation/util_map.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jof.cbhuyang.go.kr:455/images/facilities/gallery11/dImg/room0/img0.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jwagu.jp.go.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jwagu.jp.go.kr/images/huyang/siteplan.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://jwagu.jp.go.kr/images/common/svisual01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jujaksan.com/img/facility/jujaksan_info_map_b.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.jujaksan.com/img/bloom/wimg.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://집다리골.kr/images/sub/room/img_1_1_p1b.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://csforest.cs.go.kr/board/data/editor/1505/20150527175728_qwpmatwq.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://csforest.cs.go.kr/board/data/csphoto/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ccforest.or.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ccforest.or.kr/img/p1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://alpshuyang.boeun.go.kr/images/utilzation/util_map.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://alpshuyang.boeun.go.kr/images/facilities/gallery5/dImg/room0/img11.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://member.nfcf.or.kr/chiak/images/contents/img_fct0102.gif</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://member.nfcf.or.kr/chiak/images/contents/img_fct0203_01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>041-940-2428~9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://chilgap.cheongyang.go.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://chilgap.cheongyang.go.kr/images/utilization/facmap.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://chilgap.cheongyang.go.kr/images/facilities/gallery3/dImg/room2/img0.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gpfmc.or.kr/kalbong/images/contents/img_sub2_1_1.png?12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.gpfmc.or.kr/upfiles/board/sisul_kal/71211_1385645847.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://forest.taebaek.go.kr/up/board/1500623949-KakaoTalk_20170721_142953701.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://rest.gyeongju.go.kr/img/02_Menu/cont01_img01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://rest.gyeongju.go.kr/img/01_Menu/cont02_img02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://palgong.gb.go.kr/images/utilization/generalInfo/airview.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://singihan.goheung.go.kr/images/sub/img020201__.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://palgong.gb.go.kr/upload/p1ajp5gf1p14qh12l31vm8168s9km1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://singihan.goheung.go.kr/images/sub/img0201_1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://forest700.or.kr:10462/img/sub/sub14_img.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://forest700.or.kr:10462/data/file/comm2/thumb-599170908_nDOfVxZJ_03_670x447.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hachuhuyang.go.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hachuhuyang.go.kr/images/facility/facility_i01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hachuhuyang.go.kr/images/intro/intro_i01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://huyang.sancheong.go.kr/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://huyang.sancheong.go.kr/IMAGE/sub/room/img1_11l.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://huyang.sancheong.go.kr/IMAGE/sub/img1_2b.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hwawang.or.kr/img/sub/02/c02_01_img01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.hwawang.or.kr/img/sub/02/c02_02_01_img13.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://heungrimsan.yyg.go.kr:453/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://heungrimsan.yyg.go.kr:453/images/facilities/gallery1/img0.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://heungrimsan.yyg.go.kr:453/images/utilization/siteplan.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jsoup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R011</t>
-  </si>
-  <si>
-    <t>R012</t>
-  </si>
-  <si>
-    <t>인터파크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ypforest.com/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R008</t>
-  </si>
-  <si>
-    <t>R016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>남이자연휴양림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R001</t>
-  </si>
-  <si>
-    <t>R002</t>
-  </si>
-  <si>
-    <t>R004</t>
-  </si>
-  <si>
-    <t>R005</t>
-  </si>
-  <si>
-    <t>R006</t>
-  </si>
-  <si>
-    <t>R013</t>
-  </si>
-  <si>
-    <t>R014</t>
-  </si>
-  <si>
-    <t>R003</t>
-  </si>
-  <si>
-    <t>R007</t>
-  </si>
-  <si>
-    <t>R009</t>
-  </si>
-  <si>
-    <t>R010</t>
+    <t>R017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4833,7 +4837,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4873,12 +4877,12 @@
         <v>419</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -4926,9 +4930,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -4976,9 +4980,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
@@ -5026,7 +5030,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="66" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
@@ -5050,9 +5054,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
@@ -5148,9 +5152,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>27</v>
@@ -5174,9 +5178,9 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>29</v>
@@ -5272,12 +5276,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>662</v>
@@ -5346,7 +5350,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>52</v>
@@ -5490,7 +5494,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>689</v>
@@ -5514,9 +5518,9 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>66</v>
@@ -5612,12 +5616,12 @@
         <v>75</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>76</v>
@@ -5641,8 +5645,10 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
+        <v>880</v>
+      </c>
       <c r="B33" s="5" t="s">
         <v>78</v>
       </c>
@@ -5650,10 +5656,10 @@
         <v>460</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>707</v>
+        <v>879</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>579</v>
@@ -5671,13 +5677,13 @@
         <v>83</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>582</v>
@@ -5698,10 +5704,10 @@
         <v>459</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>580</v>
@@ -5713,9 +5719,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>89</v>
@@ -5724,10 +5730,10 @@
         <v>458</v>
       </c>
       <c r="D36" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>717</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>718</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>585</v>
@@ -5748,10 +5754,10 @@
         <v>457</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>580</v>
@@ -5763,21 +5769,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C38" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>722</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>723</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>582</v>
@@ -5792,16 +5798,16 @@
     <row r="39" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>725</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>727</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>726</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>575</v>
@@ -5819,10 +5825,10 @@
         <v>99</v>
       </c>
       <c r="C40" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>729</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>525</v>
@@ -5840,25 +5846,25 @@
     <row r="41" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>731</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>732</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>601</v>
       </c>
       <c r="G41" s="9" t="s">
+        <v>732</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>733</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
@@ -5870,10 +5876,10 @@
         <v>455</v>
       </c>
       <c r="D42" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>741</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>575</v>
@@ -5882,7 +5888,7 @@
         <v>103</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
@@ -5894,10 +5900,10 @@
         <v>454</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>586</v>
@@ -5918,10 +5924,10 @@
         <v>453</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>744</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>745</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>582</v>
@@ -5939,13 +5945,13 @@
         <v>110</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>747</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>748</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>602</v>
@@ -5966,10 +5972,10 @@
         <v>452</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>749</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>750</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>582</v>
@@ -5990,10 +5996,10 @@
         <v>451</v>
       </c>
       <c r="D47" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>751</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>752</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>575</v>
@@ -6014,10 +6020,10 @@
         <v>456</v>
       </c>
       <c r="D48" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>753</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>754</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>585</v>
@@ -6029,7 +6035,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>122</v>
@@ -6038,10 +6044,10 @@
         <v>450</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>755</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>756</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>579</v>
@@ -6053,21 +6059,21 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C50" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="E50" s="8" t="s">
         <v>758</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>759</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>605</v>
@@ -6088,10 +6094,10 @@
         <v>449</v>
       </c>
       <c r="D51" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>760</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>761</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>574</v>
@@ -6112,10 +6118,10 @@
         <v>448</v>
       </c>
       <c r="D52" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>762</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>763</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>575</v>
@@ -6133,13 +6139,13 @@
         <v>132</v>
       </c>
       <c r="C53" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="E53" s="8" t="s">
         <v>765</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>766</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>575</v>
@@ -6157,13 +6163,13 @@
         <v>135</v>
       </c>
       <c r="C54" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="E54" s="8" t="s">
         <v>712</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>713</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>582</v>
@@ -6181,13 +6187,13 @@
         <v>138</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>767</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>768</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>580</v>
@@ -6208,10 +6214,10 @@
         <v>447</v>
       </c>
       <c r="D56" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>770</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>771</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>575</v>
@@ -6229,13 +6235,13 @@
         <v>144</v>
       </c>
       <c r="C57" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="E57" s="8" t="s">
         <v>773</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>774</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>585</v>
@@ -6250,16 +6256,16 @@
     <row r="58" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>446</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>606</v>
@@ -6268,7 +6274,7 @@
         <v>147</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
@@ -6280,10 +6286,10 @@
         <v>445</v>
       </c>
       <c r="D59" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>779</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>780</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>585</v>
@@ -6301,13 +6307,13 @@
         <v>151</v>
       </c>
       <c r="C60" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="E60" s="8" t="s">
         <v>781</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>782</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>585</v>
@@ -6325,13 +6331,13 @@
         <v>154</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>784</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>785</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>586</v>
@@ -6352,10 +6358,10 @@
         <v>444</v>
       </c>
       <c r="D62" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>787</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>788</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>575</v>
@@ -6376,10 +6382,10 @@
         <v>443</v>
       </c>
       <c r="D63" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>789</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>790</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>582</v>
@@ -6391,7 +6397,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>162</v>
@@ -6400,10 +6406,10 @@
         <v>442</v>
       </c>
       <c r="D64" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>791</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>792</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>579</v>
@@ -6424,10 +6430,10 @@
         <v>441</v>
       </c>
       <c r="D65" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>793</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>794</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>580</v>
@@ -6445,13 +6451,13 @@
         <v>167</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D66" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>795</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>796</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>581</v>
@@ -6463,7 +6469,7 @@
         <v>168</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
@@ -6472,13 +6478,13 @@
         <v>169</v>
       </c>
       <c r="C67" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="E67" s="8" t="s">
         <v>798</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>799</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>585</v>
@@ -6496,13 +6502,13 @@
         <v>172</v>
       </c>
       <c r="C68" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>800</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="E68" s="8" t="s">
         <v>801</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>802</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>581</v>
@@ -6514,7 +6520,7 @@
         <v>174</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
@@ -6526,10 +6532,10 @@
         <v>440</v>
       </c>
       <c r="D69" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="E69" s="8" t="s">
         <v>803</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>804</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>586</v>
@@ -6550,10 +6556,10 @@
         <v>439</v>
       </c>
       <c r="D70" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="E70" s="8" t="s">
         <v>805</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>806</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>575</v>
@@ -6574,10 +6580,10 @@
         <v>438</v>
       </c>
       <c r="D71" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="E71" s="8" t="s">
         <v>807</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>808</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>580</v>
@@ -6598,10 +6604,10 @@
         <v>437</v>
       </c>
       <c r="D72" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>809</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>810</v>
       </c>
       <c r="F72" s="9" t="s">
         <v>582</v>
@@ -6622,10 +6628,10 @@
         <v>436</v>
       </c>
       <c r="D73" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="E73" s="8" t="s">
         <v>811</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>812</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>611</v>
@@ -6646,10 +6652,10 @@
         <v>435</v>
       </c>
       <c r="D74" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>813</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>814</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>580</v>
@@ -6670,10 +6676,10 @@
         <v>434</v>
       </c>
       <c r="D75" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>815</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>816</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>582</v>
@@ -6685,21 +6691,21 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>194</v>
       </c>
       <c r="C76" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>817</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="E76" s="8" t="s">
         <v>818</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>819</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>582</v>
@@ -6720,10 +6726,10 @@
         <v>433</v>
       </c>
       <c r="D77" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>820</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>821</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>580</v>
@@ -6745,7 +6751,7 @@
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>574</v>
@@ -6766,10 +6772,10 @@
         <v>431</v>
       </c>
       <c r="D79" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="E79" s="8" t="s">
         <v>823</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>824</v>
       </c>
       <c r="F79" s="9" t="s">
         <v>575</v>
@@ -6781,9 +6787,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>207</v>
@@ -6813,11 +6819,11 @@
         <v>209</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F81" s="9" t="s">
         <v>574</v>
@@ -6829,9 +6835,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>211</v>
@@ -6840,10 +6846,10 @@
         <v>429</v>
       </c>
       <c r="D82" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="E82" s="8" t="s">
         <v>827</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>828</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>582</v>
@@ -6864,10 +6870,10 @@
         <v>428</v>
       </c>
       <c r="D83" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="E83" s="8" t="s">
         <v>829</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>830</v>
       </c>
       <c r="F83" s="9" t="s">
         <v>574</v>
@@ -6879,21 +6885,21 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C84" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="E84" s="8" t="s">
         <v>833</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>834</v>
       </c>
       <c r="F84" s="9" t="s">
         <v>585</v>
@@ -6902,7 +6908,7 @@
         <v>217</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
@@ -6914,10 +6920,10 @@
         <v>427</v>
       </c>
       <c r="D85" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="E85" s="8" t="s">
         <v>835</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>836</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>581</v>
@@ -6929,7 +6935,7 @@
         <v>219</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
@@ -6942,7 +6948,7 @@
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F86" s="9" t="s">
         <v>574</v>
@@ -6963,10 +6969,10 @@
         <v>425</v>
       </c>
       <c r="D87" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="E87" s="8" t="s">
         <v>838</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>839</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>575</v>
@@ -6987,10 +6993,10 @@
         <v>424</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>575</v>
@@ -7011,10 +7017,10 @@
         <v>423</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>580</v>
@@ -7035,10 +7041,10 @@
         <v>422</v>
       </c>
       <c r="D90" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="E90" s="8" t="s">
         <v>844</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>845</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>574</v>
@@ -7056,13 +7062,13 @@
         <v>238</v>
       </c>
       <c r="C91" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="E91" s="8" t="s">
         <v>847</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>848</v>
       </c>
       <c r="F91" s="9" t="s">
         <v>574</v>
@@ -7080,13 +7086,13 @@
         <v>240</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="E92" s="8" t="s">
         <v>849</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>851</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>850</v>
       </c>
       <c r="F92" s="9" t="s">
         <v>586</v>
@@ -7125,10 +7131,10 @@
         <v>421</v>
       </c>
       <c r="D94" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="E94" s="8" t="s">
         <v>852</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>853</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>586</v>
@@ -7146,13 +7152,13 @@
         <v>248</v>
       </c>
       <c r="C95" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="E95" s="8" t="s">
         <v>738</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>737</v>
-      </c>
-      <c r="E95" s="8" t="s">
-        <v>739</v>
       </c>
       <c r="F95" s="9" t="s">
         <v>601</v>
@@ -7170,13 +7176,13 @@
         <v>250</v>
       </c>
       <c r="C96" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="E96" s="8" t="s">
         <v>854</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>856</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>855</v>
       </c>
       <c r="F96" s="9" t="s">
         <v>575</v>
@@ -7188,7 +7194,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
         <v>41</v>
@@ -7279,11 +7285,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H101">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+  <autoFilter ref="A1:I101">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="전북"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHome\workspace\honsul-inthewood-spider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="25680" windowHeight="11415" activeTab="1"/>
   </bookViews>
@@ -18,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">지자체자연휴양림!$A$1:$I$101</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="884">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3137,31 +3132,44 @@
     <t>R014</t>
   </si>
   <si>
+    <t>R007</t>
+  </si>
+  <si>
+    <t>R009</t>
+  </si>
+  <si>
+    <t>R010</t>
+  </si>
+  <si>
+    <t>http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>R003</t>
-  </si>
-  <si>
-    <t>R007</t>
-  </si>
-  <si>
-    <t>R009</t>
-  </si>
-  <si>
-    <t>R010</t>
-  </si>
-  <si>
-    <t>http://www.jangsuhuyang.kr/Banghwa1/img/facility/facility_overview_img03.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3378,7 +3386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3410,10 +3418,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3445,7 +3452,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3621,14 +3627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="4" width="28.5" customWidth="1"/>
@@ -3638,7 +3644,7 @@
     <col min="8" max="8" width="15.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>415</v>
       </c>
@@ -3664,7 +3670,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="33">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>253</v>
@@ -3688,7 +3694,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="33">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>256</v>
@@ -3712,7 +3718,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="33">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>259</v>
@@ -3736,7 +3742,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="33.75">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>262</v>
@@ -3760,7 +3766,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="33">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
         <v>265</v>
@@ -3784,7 +3790,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="33">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>268</v>
@@ -3808,7 +3814,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="33">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>271</v>
@@ -3832,7 +3838,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="33.75">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>274</v>
@@ -3856,7 +3862,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="33">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>277</v>
@@ -3880,7 +3886,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>280</v>
@@ -3904,7 +3910,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="33">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>283</v>
@@ -3928,7 +3934,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="33">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>286</v>
@@ -3952,7 +3958,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="33">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>86</v>
@@ -3976,7 +3982,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="33">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>291</v>
@@ -4000,7 +4006,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="33">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>294</v>
@@ -4024,7 +4030,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="33">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>297</v>
@@ -4048,7 +4054,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="33">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>300</v>
@@ -4072,7 +4078,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="33.75">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>303</v>
@@ -4096,7 +4102,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="49.5">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>306</v>
@@ -4120,7 +4126,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="49.5">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>522</v>
@@ -4144,7 +4150,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="33">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>307</v>
@@ -4168,7 +4174,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="33.75">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>309</v>
@@ -4192,7 +4198,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="33">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>312</v>
@@ -4216,7 +4222,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="33">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>315</v>
@@ -4240,7 +4246,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="33">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>318</v>
@@ -4264,7 +4270,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="33.75">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>321</v>
@@ -4288,7 +4294,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="33">
       <c r="A28" s="4"/>
       <c r="B28" s="5" t="s">
         <v>324</v>
@@ -4310,7 +4316,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="33">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>327</v>
@@ -4334,7 +4340,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="33">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>330</v>
@@ -4358,7 +4364,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="33">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>333</v>
@@ -4382,7 +4388,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="33">
       <c r="A32" s="4"/>
       <c r="B32" s="5" t="s">
         <v>336</v>
@@ -4406,7 +4412,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="33">
       <c r="A33" s="4"/>
       <c r="B33" s="5" t="s">
         <v>339</v>
@@ -4430,7 +4436,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="33">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>342</v>
@@ -4454,7 +4460,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="33">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>345</v>
@@ -4478,7 +4484,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="33.75">
       <c r="A36" s="4"/>
       <c r="B36" s="5" t="s">
         <v>348</v>
@@ -4502,7 +4508,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="33.75">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>351</v>
@@ -4526,7 +4532,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="33">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>354</v>
@@ -4550,7 +4556,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="33">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>357</v>
@@ -4574,7 +4580,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="33">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>360</v>
@@ -4598,7 +4604,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="33">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>363</v>
@@ -4622,7 +4628,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="33.75">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>366</v>
@@ -4646,7 +4652,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="82.5">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>369</v>
@@ -4670,7 +4676,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="33">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>372</v>
@@ -4832,15 +4838,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="34.125" style="3" customWidth="1"/>
@@ -4851,7 +4856,7 @@
     <col min="8" max="8" width="15.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>415</v>
       </c>
@@ -4880,9 +4885,9 @@
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="14" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -4906,7 +4911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="33">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -4930,7 +4935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="49.5">
       <c r="A4" s="14" t="s">
         <v>857</v>
       </c>
@@ -4956,7 +4961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="49.5">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -4980,7 +4985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="33">
       <c r="A6" s="14" t="s">
         <v>872</v>
       </c>
@@ -5006,7 +5011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="33">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -5030,7 +5035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="66">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
@@ -5054,9 +5059,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="33">
       <c r="A9" s="14" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
@@ -5080,7 +5085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="49.5">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
@@ -5104,7 +5109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="33">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
@@ -5128,7 +5133,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="49.5">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>25</v>
@@ -5152,9 +5157,9 @@
         <v>648</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="49.5">
       <c r="A13" s="14" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>27</v>
@@ -5178,9 +5183,9 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="33">
       <c r="A14" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>29</v>
@@ -5204,7 +5209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="49.5">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>32</v>
@@ -5228,7 +5233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="49.5">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>35</v>
@@ -5252,7 +5257,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="49.5">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>38</v>
@@ -5276,7 +5281,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="49.5">
       <c r="A18" s="14" t="s">
         <v>867</v>
       </c>
@@ -5302,7 +5307,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="33">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>46</v>
@@ -5326,7 +5331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="49.5">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>49</v>
@@ -5350,7 +5355,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="49.5">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>52</v>
@@ -5374,7 +5379,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="49.5">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>55</v>
@@ -5398,7 +5403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="33">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
         <v>58</v>
@@ -5422,7 +5427,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="33">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>60</v>
@@ -5446,7 +5451,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="49.5">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>63</v>
@@ -5470,7 +5475,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="33">
       <c r="A26" s="4"/>
       <c r="B26" s="5" t="s">
         <v>684</v>
@@ -5494,7 +5499,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>689</v>
@@ -5518,7 +5523,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="33">
       <c r="A28" s="14" t="s">
         <v>870</v>
       </c>
@@ -5544,7 +5549,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="33">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>68</v>
@@ -5568,7 +5573,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="33">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>71</v>
@@ -5592,7 +5597,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="33">
       <c r="A31" s="4"/>
       <c r="B31" s="5" t="s">
         <v>74</v>
@@ -5619,7 +5624,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="33">
       <c r="A32" s="14" t="s">
         <v>873</v>
       </c>
@@ -5645,9 +5650,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="49.5">
       <c r="A33" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>78</v>
@@ -5659,7 +5664,7 @@
         <v>707</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>579</v>
@@ -5671,7 +5676,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="33">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>83</v>
@@ -5695,7 +5700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="49.5">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>86</v>
@@ -5719,7 +5724,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="33">
       <c r="A36" s="14" t="s">
         <v>864</v>
       </c>
@@ -5745,7 +5750,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="33">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>92</v>
@@ -5769,7 +5774,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="82.5">
       <c r="A38" s="14" t="s">
         <v>871</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="49.5">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>723</v>
@@ -5819,7 +5824,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="49.5">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>99</v>
@@ -5843,7 +5848,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="33.75">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>729</v>
@@ -5867,7 +5872,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="33.75">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>102</v>
@@ -5891,7 +5896,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="33">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>104</v>
@@ -5915,7 +5920,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="33">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>107</v>
@@ -5939,8 +5944,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:8" ht="33.75">
+      <c r="A45" s="14" t="s">
+        <v>883</v>
+      </c>
       <c r="B45" s="5" t="s">
         <v>110</v>
       </c>
@@ -5963,7 +5970,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="33">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>113</v>
@@ -5987,7 +5994,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="49.5">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>116</v>
@@ -6011,7 +6018,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="33">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>119</v>
@@ -6035,7 +6042,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="49.5">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>122</v>
@@ -6059,7 +6066,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="33">
       <c r="A50" s="14" t="s">
         <v>874</v>
       </c>
@@ -6085,7 +6092,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="33">
       <c r="A51" s="4"/>
       <c r="B51" s="5" t="s">
         <v>126</v>
@@ -6109,7 +6116,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="33">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
         <v>129</v>
@@ -6133,7 +6140,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="33">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
         <v>132</v>
@@ -6157,7 +6164,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="33">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
         <v>135</v>
@@ -6181,7 +6188,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="33">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
         <v>138</v>
@@ -6205,7 +6212,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="33">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>141</v>
@@ -6229,7 +6236,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="82.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="82.5">
       <c r="A57" s="4"/>
       <c r="B57" s="5" t="s">
         <v>144</v>
@@ -6253,7 +6260,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="33">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>776</v>
@@ -6277,7 +6284,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="115.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="115.5">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>148</v>
@@ -6301,7 +6308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="33">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
         <v>151</v>
@@ -6325,7 +6332,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="33.75">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>154</v>
@@ -6349,7 +6356,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="33">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>157</v>
@@ -6373,7 +6380,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="49.5">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>160</v>
@@ -6397,7 +6404,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="49.5">
       <c r="A64" s="4"/>
       <c r="B64" s="5" t="s">
         <v>162</v>
@@ -6421,7 +6428,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="49.5">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>164</v>
@@ -6445,8 +6452,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
+    <row r="66" spans="1:9" ht="33">
+      <c r="A66" s="14" t="s">
+        <v>882</v>
+      </c>
       <c r="B66" s="5" t="s">
         <v>167</v>
       </c>
@@ -6472,7 +6481,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="49.5">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>169</v>
@@ -6496,7 +6505,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="49.5">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>172</v>
@@ -6523,7 +6532,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="33.75">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>175</v>
@@ -6547,7 +6556,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="33">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>178</v>
@@ -6571,7 +6580,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="33">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>181</v>
@@ -6595,7 +6604,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="33">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
         <v>184</v>
@@ -6619,7 +6628,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="33">
       <c r="A73" s="4"/>
       <c r="B73" s="5" t="s">
         <v>186</v>
@@ -6643,7 +6652,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="49.5">
       <c r="A74" s="4"/>
       <c r="B74" s="5" t="s">
         <v>189</v>
@@ -6667,7 +6676,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="49.5">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
         <v>192</v>
@@ -6691,7 +6700,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="33">
       <c r="A76" s="14" t="s">
         <v>868</v>
       </c>
@@ -6717,7 +6726,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="33">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
         <v>196</v>
@@ -6741,7 +6750,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="49.5">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
         <v>199</v>
@@ -6763,7 +6772,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="49.5">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
         <v>204</v>
@@ -6787,7 +6796,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="49.5">
       <c r="A80" s="14" t="s">
         <v>858</v>
       </c>
@@ -6813,8 +6822,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4"/>
+    <row r="81" spans="1:9" ht="33.75">
+      <c r="A81" s="14" t="s">
+        <v>880</v>
+      </c>
       <c r="B81" s="5" t="s">
         <v>209</v>
       </c>
@@ -6835,7 +6846,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="49.5">
       <c r="A82" s="14" t="s">
         <v>869</v>
       </c>
@@ -6861,7 +6872,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="33">
       <c r="A83" s="4"/>
       <c r="B83" s="5" t="s">
         <v>214</v>
@@ -6885,7 +6896,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="49.5">
       <c r="A84" s="14" t="s">
         <v>865</v>
       </c>
@@ -6911,7 +6922,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="49.5">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
         <v>218</v>
@@ -6938,7 +6949,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="49.5">
       <c r="A86" s="4"/>
       <c r="B86" s="5" t="s">
         <v>220</v>
@@ -6960,7 +6971,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="33">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
@@ -6984,7 +6995,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="33">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
         <v>229</v>
@@ -7008,7 +7019,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="33">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
         <v>232</v>
@@ -7032,7 +7043,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="49.5">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
         <v>235</v>
@@ -7056,7 +7067,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="33">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
         <v>238</v>
@@ -7080,7 +7091,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="33.75">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
         <v>240</v>
@@ -7104,7 +7115,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="22.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="22.5">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
         <v>242</v>
@@ -7122,7 +7133,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="33">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
         <v>245</v>
@@ -7146,7 +7157,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="49.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="49.5">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
         <v>248</v>
@@ -7170,7 +7181,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="33" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="33">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
         <v>250</v>
@@ -7194,7 +7205,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="22.5">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
         <v>41</v>
@@ -7212,7 +7223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="33.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="33.75">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
         <v>223</v>
@@ -7230,7 +7241,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="22.5">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
         <v>201</v>
@@ -7248,7 +7259,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="22.5">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
         <v>469</v>
@@ -7266,7 +7277,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="22.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="22.5">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
         <v>80</v>
@@ -7286,11 +7297,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:I101">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="전북"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="5"/>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="885">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3162,6 +3162,10 @@
   </si>
   <si>
     <t>R018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R021</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4841,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6873,7 +6877,9 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="33">
-      <c r="A83" s="4"/>
+      <c r="A83" s="14" t="s">
+        <v>884</v>
+      </c>
       <c r="B83" s="5" t="s">
         <v>214</v>
       </c>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="886">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3166,6 +3166,10 @@
   </si>
   <si>
     <t>R021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R022</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4845,8 +4849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6241,7 +6245,9 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="82.5">
-      <c r="A57" s="4"/>
+      <c r="A57" s="14" t="s">
+        <v>885</v>
+      </c>
       <c r="B57" s="5" t="s">
         <v>144</v>
       </c>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="887">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3170,6 +3170,10 @@
   </si>
   <si>
     <t>R022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R023</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4849,8 +4853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5606,7 +5610,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="33">
-      <c r="A31" s="4"/>
+      <c r="A31" s="14" t="s">
+        <v>886</v>
+      </c>
       <c r="B31" s="5" t="s">
         <v>74</v>
       </c>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="888">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3174,6 +3174,10 @@
   </si>
   <si>
     <t>R023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R025</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4853,8 +4857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5488,7 +5492,9 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="33">
-      <c r="A26" s="4"/>
+      <c r="A26" s="14" t="s">
+        <v>887</v>
+      </c>
       <c r="B26" s="5" t="s">
         <v>684</v>
       </c>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="890">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3178,6 +3178,14 @@
   </si>
   <si>
     <t>R025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R026</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R024</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4857,8 +4865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4928,7 +4936,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="33">
-      <c r="A3" s="4"/>
+      <c r="A3" s="14" t="s">
+        <v>888</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -6427,7 +6437,9 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="49.5">
-      <c r="A64" s="4"/>
+      <c r="A64" s="14" t="s">
+        <v>889</v>
+      </c>
       <c r="B64" s="5" t="s">
         <v>162</v>
       </c>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="892">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3186,6 +3186,14 @@
   </si>
   <si>
     <t>R024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캠핑장전용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R027</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3300,7 +3308,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3347,6 +3355,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4865,8 +4891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5430,27 +5456,30 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="33">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="19" t="s">
         <v>678</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="20" t="s">
         <v>574</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="20" t="s">
         <v>676</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="33">
@@ -6123,7 +6152,9 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="33">
-      <c r="A51" s="4"/>
+      <c r="A51" s="14" t="s">
+        <v>891</v>
+      </c>
       <c r="B51" s="5" t="s">
         <v>126</v>
       </c>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="893">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3195,13 +3195,16 @@
   <si>
     <t>R027</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPTCHA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3248,6 +3251,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3308,7 +3317,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3374,6 +3383,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4891,8 +4903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6835,6 +6847,9 @@
       </c>
       <c r="H78" s="9" t="s">
         <v>200</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="49.5">

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="894">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3198,6 +3198,10 @@
   </si>
   <si>
     <t>CAPTCHA</t>
+  </si>
+  <si>
+    <t>R028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4903,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="H90" sqref="E90:H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7126,7 +7130,9 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="49.5">
-      <c r="A90" s="4"/>
+      <c r="A90" s="14" t="s">
+        <v>893</v>
+      </c>
       <c r="B90" s="5" t="s">
         <v>235</v>
       </c>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHome\workspace\honsul-inthewood-spider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="25680" windowHeight="11415" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="25680" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="국립자연휴양림" sheetId="2" r:id="rId1"/>
-    <sheet name="지자체자연휴양림" sheetId="1" r:id="rId2"/>
+    <sheet name="국립자연휴양림 요금표" sheetId="3" r:id="rId2"/>
+    <sheet name="지자체자연휴양림" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">지자체자연휴양림!$A$1:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">지자체자연휴양림!$A$1:$I$101</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="994">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3194,14 +3200,367 @@
   </si>
   <si>
     <t>R027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0244</t>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>N004</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>N006</t>
+  </si>
+  <si>
+    <t>N007</t>
+  </si>
+  <si>
+    <t>N008</t>
+  </si>
+  <si>
+    <t>N009</t>
+  </si>
+  <si>
+    <t>N010</t>
+  </si>
+  <si>
+    <t>N011</t>
+  </si>
+  <si>
+    <t>N012</t>
+  </si>
+  <si>
+    <t>N013</t>
+  </si>
+  <si>
+    <t>N014</t>
+  </si>
+  <si>
+    <t>N015</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N017</t>
+  </si>
+  <si>
+    <t>N018</t>
+  </si>
+  <si>
+    <t>N019</t>
+  </si>
+  <si>
+    <t>N020</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>N022</t>
+  </si>
+  <si>
+    <t>N023</t>
+  </si>
+  <si>
+    <t>N024</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>N026</t>
+  </si>
+  <si>
+    <t>N027</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>N030</t>
+  </si>
+  <si>
+    <t>N031</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N033</t>
+  </si>
+  <si>
+    <t>N034</t>
+  </si>
+  <si>
+    <t>N035</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>N037</t>
+  </si>
+  <si>
+    <t>N038</t>
+  </si>
+  <si>
+    <t>N039</t>
+  </si>
+  <si>
+    <t>N040</t>
+  </si>
+  <si>
+    <t>N041</t>
+  </si>
+  <si>
+    <t>N042</t>
+  </si>
+  <si>
+    <t>N043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3인실(18㎡이하) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5인실(29㎡~33㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6~7인실(34㎡~44㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8~9인실(45㎡~57㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10~11인실(58㎡~67㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12인실 이상(68㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">산림문화 휴양관 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4인실 (19㎡~28㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5인실 (29㎡~33㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6~7인실 (34㎡~44㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8~9인실 (45㎡~57㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10~11인실 (58㎡~67㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12인실 이상 (68㎡) </t>
+  </si>
+  <si>
+    <t>숲속의집/연립동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3인실(18㎡이하) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4인실(19㎡~28㎡) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONDO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3308,7 +3667,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3375,6 +3734,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3436,7 +3801,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3468,9 +3833,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3502,6 +3868,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3677,1210 +4044,1423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="4" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>898</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>899</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33.75">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>920</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>930</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>900</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="33">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+    <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>916</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>901</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>902</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>903</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="33">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5" t="s">
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>904</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="33">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>917</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>905</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="33">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>893</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>906</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33.75">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>910</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="49.5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>521</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="G20" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="49.5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>525</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="I21" s="9" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>911</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="33.75">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>931</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>894</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>913</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="9" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="33">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>907</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33.75">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>914</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="G27" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5" t="s">
+    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>908</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="33">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="I29" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="33">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>895</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="33">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5" t="s">
+    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>918</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="9" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="33">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5" t="s">
+    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>896</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B33" s="22"/>
+      <c r="C33" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>897</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="33">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>932</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="9" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33.75">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="G36" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33.75">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="33">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5" t="s">
+    <row r="38" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>969</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>927</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="33">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>909</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="G39" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="33">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="I40" s="9" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="G41" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33.75">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>912</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="G42" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="82.5">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>919</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="33">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>915</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C44" r:id="rId14"/>
-    <hyperlink ref="C43" r:id="rId15"/>
-    <hyperlink ref="C42" r:id="rId16"/>
-    <hyperlink ref="C41" r:id="rId17"/>
-    <hyperlink ref="C40" r:id="rId18"/>
-    <hyperlink ref="C39" r:id="rId19"/>
-    <hyperlink ref="C38" r:id="rId20"/>
-    <hyperlink ref="C37" r:id="rId21"/>
-    <hyperlink ref="C36" r:id="rId22"/>
-    <hyperlink ref="C35" r:id="rId23"/>
-    <hyperlink ref="C34" r:id="rId24"/>
-    <hyperlink ref="C33" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C31" r:id="rId27"/>
-    <hyperlink ref="C30" r:id="rId28"/>
-    <hyperlink ref="C29" r:id="rId29"/>
-    <hyperlink ref="C28" r:id="rId30"/>
-    <hyperlink ref="C27" r:id="rId31"/>
-    <hyperlink ref="C26" r:id="rId32"/>
-    <hyperlink ref="C25" r:id="rId33"/>
-    <hyperlink ref="C24" r:id="rId34"/>
-    <hyperlink ref="C23" r:id="rId35"/>
-    <hyperlink ref="C22" r:id="rId36"/>
-    <hyperlink ref="C19" r:id="rId37"/>
-    <hyperlink ref="C18" r:id="rId38"/>
-    <hyperlink ref="C17" r:id="rId39"/>
-    <hyperlink ref="C16" r:id="rId40"/>
-    <hyperlink ref="C15" r:id="rId41"/>
-    <hyperlink ref="E2" r:id="rId42"/>
-    <hyperlink ref="E3" r:id="rId43"/>
-    <hyperlink ref="E4" r:id="rId44"/>
-    <hyperlink ref="E5" r:id="rId45"/>
-    <hyperlink ref="E6" r:id="rId46"/>
-    <hyperlink ref="E7" r:id="rId47"/>
-    <hyperlink ref="E8" r:id="rId48"/>
-    <hyperlink ref="E10" r:id="rId49"/>
-    <hyperlink ref="D13" r:id="rId50"/>
-    <hyperlink ref="D12" r:id="rId51"/>
-    <hyperlink ref="D9" r:id="rId52"/>
-    <hyperlink ref="D10" r:id="rId53"/>
-    <hyperlink ref="E9" r:id="rId54"/>
-    <hyperlink ref="D2" r:id="rId55"/>
-    <hyperlink ref="D3" r:id="rId56"/>
-    <hyperlink ref="D4" r:id="rId57"/>
-    <hyperlink ref="D5" r:id="rId58"/>
-    <hyperlink ref="D6" r:id="rId59"/>
-    <hyperlink ref="D7" r:id="rId60"/>
-    <hyperlink ref="D8" r:id="rId61"/>
-    <hyperlink ref="E11" r:id="rId62"/>
-    <hyperlink ref="E12" r:id="rId63"/>
-    <hyperlink ref="E13" r:id="rId64"/>
-    <hyperlink ref="D14" r:id="rId65"/>
-    <hyperlink ref="E14" r:id="rId66"/>
-    <hyperlink ref="D15" r:id="rId67"/>
-    <hyperlink ref="E15" r:id="rId68"/>
-    <hyperlink ref="D16" r:id="rId69"/>
-    <hyperlink ref="E16" r:id="rId70"/>
-    <hyperlink ref="D17" r:id="rId71"/>
-    <hyperlink ref="E17" r:id="rId72"/>
-    <hyperlink ref="D18" r:id="rId73"/>
-    <hyperlink ref="E18" r:id="rId74"/>
-    <hyperlink ref="D19" r:id="rId75"/>
-    <hyperlink ref="E19" r:id="rId76"/>
-    <hyperlink ref="C20" r:id="rId77"/>
-    <hyperlink ref="D20" r:id="rId78"/>
-    <hyperlink ref="C21" r:id="rId79"/>
-    <hyperlink ref="D21" r:id="rId80"/>
-    <hyperlink ref="E20" r:id="rId81"/>
-    <hyperlink ref="E21" r:id="rId82"/>
-    <hyperlink ref="D22" r:id="rId83"/>
-    <hyperlink ref="E22" r:id="rId84"/>
-    <hyperlink ref="D23" r:id="rId85"/>
-    <hyperlink ref="E23" r:id="rId86"/>
-    <hyperlink ref="E24" r:id="rId87"/>
-    <hyperlink ref="D25" r:id="rId88"/>
-    <hyperlink ref="E25" r:id="rId89"/>
-    <hyperlink ref="D26" r:id="rId90"/>
-    <hyperlink ref="E26" r:id="rId91"/>
-    <hyperlink ref="D27" r:id="rId92"/>
-    <hyperlink ref="E27" r:id="rId93"/>
-    <hyperlink ref="E28" r:id="rId94"/>
-    <hyperlink ref="D29" r:id="rId95"/>
-    <hyperlink ref="E29" r:id="rId96"/>
-    <hyperlink ref="D30" r:id="rId97"/>
-    <hyperlink ref="E30" r:id="rId98"/>
-    <hyperlink ref="D31" r:id="rId99"/>
-    <hyperlink ref="E31" r:id="rId100"/>
-    <hyperlink ref="D32" r:id="rId101"/>
-    <hyperlink ref="E32" r:id="rId102"/>
-    <hyperlink ref="D33" r:id="rId103"/>
-    <hyperlink ref="E33" r:id="rId104"/>
-    <hyperlink ref="D34" r:id="rId105"/>
-    <hyperlink ref="E34" r:id="rId106"/>
-    <hyperlink ref="D35" r:id="rId107"/>
-    <hyperlink ref="E35" r:id="rId108"/>
-    <hyperlink ref="D36" r:id="rId109"/>
-    <hyperlink ref="E36" r:id="rId110"/>
-    <hyperlink ref="D37" r:id="rId111"/>
-    <hyperlink ref="E37" r:id="rId112"/>
-    <hyperlink ref="D38" r:id="rId113"/>
-    <hyperlink ref="E38" r:id="rId114"/>
-    <hyperlink ref="D39" r:id="rId115"/>
-    <hyperlink ref="E39" r:id="rId116"/>
-    <hyperlink ref="D40" r:id="rId117"/>
-    <hyperlink ref="E40" r:id="rId118"/>
-    <hyperlink ref="D41" r:id="rId119"/>
-    <hyperlink ref="E41" r:id="rId120"/>
-    <hyperlink ref="E42" r:id="rId121"/>
-    <hyperlink ref="E43" r:id="rId122"/>
-    <hyperlink ref="D44" r:id="rId123"/>
-    <hyperlink ref="E44" r:id="rId124"/>
-    <hyperlink ref="D43" r:id="rId125"/>
-    <hyperlink ref="D42" r:id="rId126"/>
-    <hyperlink ref="D24" r:id="rId127"/>
-    <hyperlink ref="D11" r:id="rId128"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D44" r:id="rId14"/>
+    <hyperlink ref="D43" r:id="rId15"/>
+    <hyperlink ref="D42" r:id="rId16"/>
+    <hyperlink ref="D41" r:id="rId17"/>
+    <hyperlink ref="D40" r:id="rId18"/>
+    <hyperlink ref="D39" r:id="rId19"/>
+    <hyperlink ref="D38" r:id="rId20"/>
+    <hyperlink ref="D37" r:id="rId21"/>
+    <hyperlink ref="D36" r:id="rId22"/>
+    <hyperlink ref="D35" r:id="rId23"/>
+    <hyperlink ref="D34" r:id="rId24"/>
+    <hyperlink ref="D33" r:id="rId25"/>
+    <hyperlink ref="D32" r:id="rId26"/>
+    <hyperlink ref="D31" r:id="rId27"/>
+    <hyperlink ref="D30" r:id="rId28"/>
+    <hyperlink ref="D29" r:id="rId29"/>
+    <hyperlink ref="D28" r:id="rId30"/>
+    <hyperlink ref="D27" r:id="rId31"/>
+    <hyperlink ref="D26" r:id="rId32"/>
+    <hyperlink ref="D25" r:id="rId33"/>
+    <hyperlink ref="D24" r:id="rId34"/>
+    <hyperlink ref="D23" r:id="rId35"/>
+    <hyperlink ref="D22" r:id="rId36"/>
+    <hyperlink ref="D19" r:id="rId37"/>
+    <hyperlink ref="D18" r:id="rId38"/>
+    <hyperlink ref="D17" r:id="rId39"/>
+    <hyperlink ref="D16" r:id="rId40"/>
+    <hyperlink ref="D15" r:id="rId41"/>
+    <hyperlink ref="F2" r:id="rId42"/>
+    <hyperlink ref="F3" r:id="rId43"/>
+    <hyperlink ref="F4" r:id="rId44"/>
+    <hyperlink ref="F5" r:id="rId45"/>
+    <hyperlink ref="F6" r:id="rId46"/>
+    <hyperlink ref="F7" r:id="rId47"/>
+    <hyperlink ref="F8" r:id="rId48"/>
+    <hyperlink ref="F10" r:id="rId49"/>
+    <hyperlink ref="E13" r:id="rId50"/>
+    <hyperlink ref="E12" r:id="rId51"/>
+    <hyperlink ref="E9" r:id="rId52"/>
+    <hyperlink ref="E10" r:id="rId53"/>
+    <hyperlink ref="F9" r:id="rId54"/>
+    <hyperlink ref="E2" r:id="rId55"/>
+    <hyperlink ref="E3" r:id="rId56"/>
+    <hyperlink ref="E4" r:id="rId57"/>
+    <hyperlink ref="E5" r:id="rId58"/>
+    <hyperlink ref="E6" r:id="rId59"/>
+    <hyperlink ref="E7" r:id="rId60"/>
+    <hyperlink ref="E8" r:id="rId61"/>
+    <hyperlink ref="F11" r:id="rId62"/>
+    <hyperlink ref="F12" r:id="rId63"/>
+    <hyperlink ref="F13" r:id="rId64"/>
+    <hyperlink ref="E14" r:id="rId65"/>
+    <hyperlink ref="F14" r:id="rId66"/>
+    <hyperlink ref="E15" r:id="rId67"/>
+    <hyperlink ref="F15" r:id="rId68"/>
+    <hyperlink ref="E16" r:id="rId69"/>
+    <hyperlink ref="F16" r:id="rId70"/>
+    <hyperlink ref="E17" r:id="rId71"/>
+    <hyperlink ref="F17" r:id="rId72"/>
+    <hyperlink ref="E18" r:id="rId73"/>
+    <hyperlink ref="F18" r:id="rId74"/>
+    <hyperlink ref="E19" r:id="rId75"/>
+    <hyperlink ref="F19" r:id="rId76"/>
+    <hyperlink ref="D20" r:id="rId77"/>
+    <hyperlink ref="E20" r:id="rId78"/>
+    <hyperlink ref="D21" r:id="rId79"/>
+    <hyperlink ref="E21" r:id="rId80"/>
+    <hyperlink ref="F20" r:id="rId81"/>
+    <hyperlink ref="F21" r:id="rId82"/>
+    <hyperlink ref="E22" r:id="rId83"/>
+    <hyperlink ref="F22" r:id="rId84"/>
+    <hyperlink ref="E23" r:id="rId85"/>
+    <hyperlink ref="F23" r:id="rId86"/>
+    <hyperlink ref="F24" r:id="rId87"/>
+    <hyperlink ref="E25" r:id="rId88"/>
+    <hyperlink ref="F25" r:id="rId89"/>
+    <hyperlink ref="E26" r:id="rId90"/>
+    <hyperlink ref="F26" r:id="rId91"/>
+    <hyperlink ref="E27" r:id="rId92"/>
+    <hyperlink ref="F27" r:id="rId93"/>
+    <hyperlink ref="F28" r:id="rId94"/>
+    <hyperlink ref="E29" r:id="rId95"/>
+    <hyperlink ref="F29" r:id="rId96"/>
+    <hyperlink ref="E30" r:id="rId97"/>
+    <hyperlink ref="F30" r:id="rId98"/>
+    <hyperlink ref="E31" r:id="rId99"/>
+    <hyperlink ref="F31" r:id="rId100"/>
+    <hyperlink ref="E32" r:id="rId101"/>
+    <hyperlink ref="F32" r:id="rId102"/>
+    <hyperlink ref="E33" r:id="rId103"/>
+    <hyperlink ref="F33" r:id="rId104"/>
+    <hyperlink ref="E34" r:id="rId105"/>
+    <hyperlink ref="F34" r:id="rId106"/>
+    <hyperlink ref="E35" r:id="rId107"/>
+    <hyperlink ref="F35" r:id="rId108"/>
+    <hyperlink ref="E36" r:id="rId109"/>
+    <hyperlink ref="F36" r:id="rId110"/>
+    <hyperlink ref="E37" r:id="rId111"/>
+    <hyperlink ref="F37" r:id="rId112"/>
+    <hyperlink ref="E38" r:id="rId113"/>
+    <hyperlink ref="F38" r:id="rId114"/>
+    <hyperlink ref="E39" r:id="rId115"/>
+    <hyperlink ref="F39" r:id="rId116"/>
+    <hyperlink ref="E40" r:id="rId117"/>
+    <hyperlink ref="F40" r:id="rId118"/>
+    <hyperlink ref="E41" r:id="rId119"/>
+    <hyperlink ref="F41" r:id="rId120"/>
+    <hyperlink ref="F42" r:id="rId121"/>
+    <hyperlink ref="F43" r:id="rId122"/>
+    <hyperlink ref="E44" r:id="rId123"/>
+    <hyperlink ref="F44" r:id="rId124"/>
+    <hyperlink ref="E43" r:id="rId125"/>
+    <hyperlink ref="E42" r:id="rId126"/>
+    <hyperlink ref="E24" r:id="rId127"/>
+    <hyperlink ref="E11" r:id="rId128"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
@@ -4888,14 +5468,446 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23">
+        <v>35000</v>
+      </c>
+      <c r="F1" s="23">
+        <v>58000</v>
+      </c>
+      <c r="G1" s="23" t="str">
+        <f>"PRICE_MAP.put(Objects.hash(RoomType."&amp;C1&amp;", "&amp;D1&amp;"), new long[] {" &amp;E1 &amp; "," &amp;F1&amp;"});"</f>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 3), new long[] {35000,58000});</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="23">
+        <v>37000</v>
+      </c>
+      <c r="F2" s="23">
+        <v>67000</v>
+      </c>
+      <c r="G2" s="23" t="str">
+        <f t="shared" ref="G2:G20" si="0">"PRICE_MAP.put(Objects.hash(RoomType."&amp;C2&amp;", "&amp;D2&amp;"), new long[] {" &amp;E2 &amp; "," &amp;F2&amp;"});"</f>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 4), new long[] {37000,67000});</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="23">
+        <v>46000</v>
+      </c>
+      <c r="F3" s="23">
+        <v>85000</v>
+      </c>
+      <c r="G3" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 5), new long[] {46000,85000});</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C4" t="s">
+        <v>992</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="23">
+        <v>58000</v>
+      </c>
+      <c r="F4" s="23">
+        <v>104000</v>
+      </c>
+      <c r="G4" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 6), new long[] {58000,104000});</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>992</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="23">
+        <v>58000</v>
+      </c>
+      <c r="F5" s="23">
+        <v>104000</v>
+      </c>
+      <c r="G5" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 7), new long[] {58000,104000});</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>979</v>
+      </c>
+      <c r="C6" t="s">
+        <v>992</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="23">
+        <v>77000</v>
+      </c>
+      <c r="F6" s="23">
+        <v>134000</v>
+      </c>
+      <c r="G6" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 8), new long[] {77000,134000});</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>992</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="23">
+        <v>77000</v>
+      </c>
+      <c r="F7" s="23">
+        <v>134000</v>
+      </c>
+      <c r="G7" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 9), new long[] {77000,134000});</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>980</v>
+      </c>
+      <c r="C8" t="s">
+        <v>992</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="23">
+        <v>91000</v>
+      </c>
+      <c r="F8" s="23">
+        <v>151000</v>
+      </c>
+      <c r="G8" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 10), new long[] {91000,151000});</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>992</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9" s="23">
+        <v>91000</v>
+      </c>
+      <c r="F9" s="23">
+        <v>151000</v>
+      </c>
+      <c r="G9" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 11), new long[] {91000,151000});</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>981</v>
+      </c>
+      <c r="C10" t="s">
+        <v>992</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" s="23">
+        <v>104000</v>
+      </c>
+      <c r="F10" s="23">
+        <v>184000</v>
+      </c>
+      <c r="G10" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 12), new long[] {104000,184000});</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>982</v>
+      </c>
+      <c r="B11" t="s">
+        <v>976</v>
+      </c>
+      <c r="C11" t="s">
+        <v>993</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="23">
+        <v>32000</v>
+      </c>
+      <c r="F11" s="23">
+        <v>53000</v>
+      </c>
+      <c r="G11" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 3), new long[] {32000,53000});</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>983</v>
+      </c>
+      <c r="C12" t="s">
+        <v>993</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="23">
+        <v>39000</v>
+      </c>
+      <c r="F12" s="23">
+        <v>68000</v>
+      </c>
+      <c r="G12" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 4), new long[] {39000,68000});</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>984</v>
+      </c>
+      <c r="C13" t="s">
+        <v>993</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="23">
+        <v>50000</v>
+      </c>
+      <c r="F13" s="23">
+        <v>91000</v>
+      </c>
+      <c r="G13" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 5), new long[] {50000,91000});</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>985</v>
+      </c>
+      <c r="C14" t="s">
+        <v>993</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="23">
+        <v>67000</v>
+      </c>
+      <c r="F14" s="23">
+        <v>119000</v>
+      </c>
+      <c r="G14" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 6), new long[] {67000,119000});</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>993</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15" s="23">
+        <v>67000</v>
+      </c>
+      <c r="F15" s="23">
+        <v>119000</v>
+      </c>
+      <c r="G15" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 7), new long[] {67000,119000});</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>986</v>
+      </c>
+      <c r="C16" t="s">
+        <v>993</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="23">
+        <v>85000</v>
+      </c>
+      <c r="F16" s="23">
+        <v>144000</v>
+      </c>
+      <c r="G16" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 8), new long[] {85000,144000});</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>993</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" s="23">
+        <v>85000</v>
+      </c>
+      <c r="F17" s="23">
+        <v>144000</v>
+      </c>
+      <c r="G17" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 9), new long[] {85000,144000});</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>987</v>
+      </c>
+      <c r="C18" t="s">
+        <v>993</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="23">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="23">
+        <v>164000</v>
+      </c>
+      <c r="G18" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 10), new long[] {100000,164000});</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>993</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19" s="23">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="23">
+        <v>164000</v>
+      </c>
+      <c r="G19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 11), new long[] {100000,164000});</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>988</v>
+      </c>
+      <c r="C20" t="s">
+        <v>993</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" s="23">
+        <v>107000</v>
+      </c>
+      <c r="F20" s="23">
+        <v>186000</v>
+      </c>
+      <c r="G20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 12), new long[] {107000,186000});</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="34.125" style="3" customWidth="1"/>
@@ -4906,7 +5918,7 @@
     <col min="8" max="8" width="15.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>415</v>
       </c>
@@ -4935,7 +5947,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33">
+    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>875</v>
       </c>
@@ -4961,7 +5973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33">
+    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>888</v>
       </c>
@@ -4987,7 +5999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="49.5">
+    <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>857</v>
       </c>
@@ -5013,7 +6025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="49.5">
+    <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -5037,7 +6049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33">
+    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>872</v>
       </c>
@@ -5063,7 +6075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33">
+    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -5087,7 +6099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="66">
+    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
@@ -5111,7 +6123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33">
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>881</v>
       </c>
@@ -5137,7 +6149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="49.5">
+    <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
@@ -5161,7 +6173,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33">
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
@@ -5185,7 +6197,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="49.5">
+    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>25</v>
@@ -5209,7 +6221,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="49.5">
+    <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>876</v>
       </c>
@@ -5235,7 +6247,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33">
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>877</v>
       </c>
@@ -5261,7 +6273,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="49.5">
+    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>32</v>
@@ -5285,7 +6297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="49.5">
+    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>35</v>
@@ -5309,7 +6321,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="49.5">
+    <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>38</v>
@@ -5333,7 +6345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="49.5">
+    <row r="18" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>867</v>
       </c>
@@ -5359,7 +6371,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33">
+    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>46</v>
@@ -5383,7 +6395,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5">
+    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>49</v>
@@ -5407,7 +6419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5">
+    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>52</v>
@@ -5431,7 +6443,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="49.5">
+    <row r="22" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>55</v>
@@ -5455,7 +6467,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33">
+    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="17" t="s">
         <v>58</v>
@@ -5482,7 +6494,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33">
+    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>60</v>
@@ -5506,7 +6518,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="49.5">
+    <row r="25" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>63</v>
@@ -5530,7 +6542,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33">
+    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>887</v>
       </c>
@@ -5556,7 +6568,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33">
+    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>689</v>
@@ -5580,7 +6592,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33">
+    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>870</v>
       </c>
@@ -5606,7 +6618,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="33">
+    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="5" t="s">
         <v>68</v>
@@ -5630,7 +6642,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="33">
+    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>71</v>
@@ -5654,7 +6666,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33">
+    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>886</v>
       </c>
@@ -5683,7 +6695,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33">
+    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>873</v>
       </c>
@@ -5709,7 +6721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="49.5">
+    <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>879</v>
       </c>
@@ -5735,7 +6747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33">
+    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>83</v>
@@ -5759,7 +6771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="49.5">
+    <row r="35" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>86</v>
@@ -5783,7 +6795,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33">
+    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>864</v>
       </c>
@@ -5809,7 +6821,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33">
+    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>92</v>
@@ -5833,7 +6845,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="82.5">
+    <row r="38" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>871</v>
       </c>
@@ -5859,7 +6871,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="49.5">
+    <row r="39" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>723</v>
@@ -5883,7 +6895,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="49.5">
+    <row r="40" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>99</v>
@@ -5907,7 +6919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33.75">
+    <row r="41" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>729</v>
@@ -5931,7 +6943,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33.75">
+    <row r="42" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>102</v>
@@ -5955,7 +6967,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="33">
+    <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>104</v>
@@ -5979,7 +6991,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="33">
+    <row r="44" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>107</v>
@@ -6003,7 +7015,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="33.75">
+    <row r="45" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>883</v>
       </c>
@@ -6029,7 +7041,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="33">
+    <row r="46" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>113</v>
@@ -6053,7 +7065,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="49.5">
+    <row r="47" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>116</v>
@@ -6077,7 +7089,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="33">
+    <row r="48" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>119</v>
@@ -6101,7 +7113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="49.5">
+    <row r="49" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>122</v>
@@ -6125,7 +7137,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33">
+    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>874</v>
       </c>
@@ -6151,7 +7163,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="33">
+    <row r="51" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="14" t="s">
         <v>891</v>
       </c>
@@ -6177,7 +7189,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="33">
+    <row r="52" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
         <v>129</v>
@@ -6201,7 +7213,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="33">
+    <row r="53" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
         <v>132</v>
@@ -6225,7 +7237,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="33">
+    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
         <v>135</v>
@@ -6249,7 +7261,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="33">
+    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
         <v>138</v>
@@ -6273,7 +7285,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="33">
+    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>141</v>
@@ -6297,7 +7309,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="82.5">
+    <row r="57" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
         <v>885</v>
       </c>
@@ -6323,7 +7335,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="33">
+    <row r="58" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>776</v>
@@ -6347,7 +7359,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="115.5">
+    <row r="59" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>148</v>
@@ -6371,7 +7383,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="33">
+    <row r="60" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
         <v>151</v>
@@ -6395,7 +7407,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="33.75">
+    <row r="61" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>154</v>
@@ -6419,7 +7431,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="33">
+    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>157</v>
@@ -6443,7 +7455,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="49.5">
+    <row r="63" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>160</v>
@@ -6467,7 +7479,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="49.5">
+    <row r="64" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>889</v>
       </c>
@@ -6493,7 +7505,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="49.5">
+    <row r="65" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>164</v>
@@ -6517,7 +7529,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="33">
+    <row r="66" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A66" s="14" t="s">
         <v>882</v>
       </c>
@@ -6546,7 +7558,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="49.5">
+    <row r="67" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>169</v>
@@ -6570,7 +7582,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="49.5">
+    <row r="68" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>172</v>
@@ -6597,7 +7609,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="33.75">
+    <row r="69" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>175</v>
@@ -6621,7 +7633,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="33">
+    <row r="70" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>178</v>
@@ -6645,7 +7657,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="33">
+    <row r="71" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>181</v>
@@ -6669,7 +7681,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="33">
+    <row r="72" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
         <v>184</v>
@@ -6693,7 +7705,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="33">
+    <row r="73" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="5" t="s">
         <v>186</v>
@@ -6717,7 +7729,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="49.5">
+    <row r="74" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="5" t="s">
         <v>189</v>
@@ -6741,7 +7753,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="49.5">
+    <row r="75" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
         <v>192</v>
@@ -6765,7 +7777,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="33">
+    <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
         <v>868</v>
       </c>
@@ -6791,7 +7803,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="33">
+    <row r="77" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
         <v>196</v>
@@ -6815,7 +7827,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="49.5">
+    <row r="78" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
         <v>199</v>
@@ -6837,7 +7849,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="49.5">
+    <row r="79" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
         <v>204</v>
@@ -6861,7 +7873,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="49.5">
+    <row r="80" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" s="14" t="s">
         <v>858</v>
       </c>
@@ -6887,7 +7899,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="33.75">
+    <row r="81" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>880</v>
       </c>
@@ -6911,7 +7923,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="49.5">
+    <row r="82" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A82" s="14" t="s">
         <v>869</v>
       </c>
@@ -6937,7 +7949,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="33">
+    <row r="83" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
         <v>884</v>
       </c>
@@ -6963,7 +7975,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="49.5">
+    <row r="84" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A84" s="14" t="s">
         <v>865</v>
       </c>
@@ -6989,7 +8001,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="49.5">
+    <row r="85" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
         <v>218</v>
@@ -7016,7 +8028,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="49.5">
+    <row r="86" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="5" t="s">
         <v>220</v>
@@ -7038,7 +8050,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="33">
+    <row r="87" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
@@ -7062,7 +8074,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="33">
+    <row r="88" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
         <v>229</v>
@@ -7086,7 +8098,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="33">
+    <row r="89" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
         <v>232</v>
@@ -7110,7 +8122,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="49.5">
+    <row r="90" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="5" t="s">
         <v>235</v>
@@ -7134,7 +8146,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="33">
+    <row r="91" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
         <v>238</v>
@@ -7158,7 +8170,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="33.75">
+    <row r="92" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
         <v>240</v>
@@ -7182,7 +8194,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="22.5">
+    <row r="93" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
         <v>242</v>
@@ -7200,7 +8212,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="33">
+    <row r="94" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
         <v>245</v>
@@ -7224,7 +8236,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="49.5">
+    <row r="95" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
         <v>248</v>
@@ -7248,7 +8260,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="33">
+    <row r="96" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
         <v>250</v>
@@ -7272,7 +8284,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="22.5">
+    <row r="97" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
         <v>41</v>
@@ -7290,7 +8302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="33.75">
+    <row r="98" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
         <v>223</v>
@@ -7308,7 +8320,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="22.5">
+    <row r="99" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
         <v>201</v>
@@ -7326,7 +8338,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="22.5">
+    <row r="100" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
         <v>469</v>
@@ -7344,7 +8356,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="22.5">
+    <row r="101" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
         <v>80</v>
@@ -7363,9 +8375,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I101">
-    <filterColumn colId="5"/>
-  </autoFilter>
+  <autoFilter ref="A1:I101"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="896">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3201,6 +3201,14 @@
   </si>
   <si>
     <t>R028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4907,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="H90" sqref="E90:H90"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5376,31 +5384,36 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="33">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="18" t="s">
         <v>666</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="20" t="s">
         <v>48</v>
       </c>
+      <c r="I19" s="21" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="49.5">
-      <c r="A20" s="4"/>
+      <c r="A20" s="14" t="s">
+        <v>894</v>
+      </c>
       <c r="B20" s="5" t="s">
         <v>49</v>
       </c>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHome\workspace\honsul-inthewood-spider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="25680" windowHeight="11415" activeTab="2"/>
   </bookViews>
@@ -19,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">지자체자연휴양림!$A$1:$I$101</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="996">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3557,14 +3552,18 @@
   </si>
   <si>
     <t>R028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R030</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3805,7 +3804,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3837,10 +3836,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3872,7 +3870,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4048,14 +4045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="9" style="3"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
@@ -4066,7 +4063,7 @@
     <col min="9" max="9" width="15.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>415</v>
       </c>
@@ -4095,7 +4092,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="4" t="s">
         <v>933</v>
       </c>
@@ -4124,7 +4121,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="33">
       <c r="A3" s="4" t="s">
         <v>934</v>
       </c>
@@ -4153,7 +4150,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="33">
       <c r="A4" s="4" t="s">
         <v>935</v>
       </c>
@@ -4182,7 +4179,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="33.75">
       <c r="A5" s="4" t="s">
         <v>936</v>
       </c>
@@ -4211,7 +4208,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="33">
       <c r="A6" s="4" t="s">
         <v>937</v>
       </c>
@@ -4240,7 +4237,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="33">
       <c r="A7" s="4" t="s">
         <v>938</v>
       </c>
@@ -4269,7 +4266,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="33">
       <c r="A8" s="4" t="s">
         <v>939</v>
       </c>
@@ -4298,7 +4295,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="33.75">
       <c r="A9" s="4" t="s">
         <v>940</v>
       </c>
@@ -4327,7 +4324,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="33">
       <c r="A10" s="4" t="s">
         <v>941</v>
       </c>
@@ -4356,7 +4353,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="33">
       <c r="A11" s="4" t="s">
         <v>942</v>
       </c>
@@ -4385,7 +4382,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="33">
       <c r="A12" s="4" t="s">
         <v>943</v>
       </c>
@@ -4414,7 +4411,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="33">
       <c r="A13" s="4" t="s">
         <v>944</v>
       </c>
@@ -4443,7 +4440,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="33">
       <c r="A14" s="4" t="s">
         <v>945</v>
       </c>
@@ -4472,7 +4469,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="33">
       <c r="A15" s="4" t="s">
         <v>946</v>
       </c>
@@ -4501,7 +4498,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="33">
       <c r="A16" s="4" t="s">
         <v>947</v>
       </c>
@@ -4530,7 +4527,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="33">
       <c r="A17" s="4" t="s">
         <v>948</v>
       </c>
@@ -4559,7 +4556,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="33">
       <c r="A18" s="4" t="s">
         <v>949</v>
       </c>
@@ -4588,7 +4585,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="33.75">
       <c r="A19" s="4" t="s">
         <v>950</v>
       </c>
@@ -4617,7 +4614,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="49.5">
       <c r="A20" s="4" t="s">
         <v>951</v>
       </c>
@@ -4644,7 +4641,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="49.5">
       <c r="A21" s="4" t="s">
         <v>952</v>
       </c>
@@ -4671,7 +4668,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="33">
       <c r="A22" s="4" t="s">
         <v>953</v>
       </c>
@@ -4700,7 +4697,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="33.75">
       <c r="A23" s="4" t="s">
         <v>954</v>
       </c>
@@ -4729,7 +4726,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="33">
       <c r="A24" s="4" t="s">
         <v>955</v>
       </c>
@@ -4758,7 +4755,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="33">
       <c r="A25" s="4" t="s">
         <v>956</v>
       </c>
@@ -4787,7 +4784,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="33">
       <c r="A26" s="4" t="s">
         <v>957</v>
       </c>
@@ -4816,7 +4813,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="33.75">
       <c r="A27" s="4" t="s">
         <v>958</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="33">
       <c r="A28" s="4" t="s">
         <v>959</v>
       </c>
@@ -4872,7 +4869,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="33">
       <c r="A29" s="4" t="s">
         <v>960</v>
       </c>
@@ -4901,7 +4898,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="33">
       <c r="A30" s="4" t="s">
         <v>961</v>
       </c>
@@ -4930,7 +4927,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="33">
       <c r="A31" s="4" t="s">
         <v>962</v>
       </c>
@@ -4959,7 +4956,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="33">
       <c r="A32" s="4" t="s">
         <v>963</v>
       </c>
@@ -4988,7 +4985,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="33">
       <c r="A33" s="4" t="s">
         <v>964</v>
       </c>
@@ -5015,7 +5012,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="33">
       <c r="A34" s="4" t="s">
         <v>965</v>
       </c>
@@ -5044,7 +5041,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="33">
       <c r="A35" s="4" t="s">
         <v>966</v>
       </c>
@@ -5073,7 +5070,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="33.75">
       <c r="A36" s="4" t="s">
         <v>967</v>
       </c>
@@ -5102,7 +5099,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="33.75">
       <c r="A37" s="4" t="s">
         <v>968</v>
       </c>
@@ -5131,7 +5128,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="33">
       <c r="A38" s="4" t="s">
         <v>969</v>
       </c>
@@ -5160,7 +5157,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="33">
       <c r="A39" s="4" t="s">
         <v>970</v>
       </c>
@@ -5189,7 +5186,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="33">
       <c r="A40" s="4" t="s">
         <v>971</v>
       </c>
@@ -5218,7 +5215,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="33">
       <c r="A41" s="4" t="s">
         <v>972</v>
       </c>
@@ -5247,7 +5244,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="33.75">
       <c r="A42" s="4" t="s">
         <v>973</v>
       </c>
@@ -5276,7 +5273,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="82.5">
       <c r="A43" s="4" t="s">
         <v>974</v>
       </c>
@@ -5305,7 +5302,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="33">
       <c r="A44" s="4" t="s">
         <v>975</v>
       </c>
@@ -5472,14 +5469,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="2" width="23.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
@@ -5489,7 +5486,7 @@
     <col min="8" max="8" width="71.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>989</v>
       </c>
@@ -5513,7 +5510,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 3), new long[] {35000,58000});</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>991</v>
       </c>
@@ -5534,7 +5531,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 4), new long[] {37000,67000});</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>977</v>
       </c>
@@ -5555,7 +5552,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 5), new long[] {46000,85000});</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="B4" t="s">
         <v>978</v>
       </c>
@@ -5576,7 +5573,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 6), new long[] {58000,104000});</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>992</v>
       </c>
@@ -5594,7 +5591,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 7), new long[] {58000,104000});</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="B6" t="s">
         <v>979</v>
       </c>
@@ -5615,7 +5612,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 8), new long[] {77000,134000});</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
         <v>992</v>
       </c>
@@ -5633,7 +5630,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 9), new long[] {77000,134000});</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="B8" t="s">
         <v>980</v>
       </c>
@@ -5654,7 +5651,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 10), new long[] {91000,151000});</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="C9" t="s">
         <v>992</v>
       </c>
@@ -5672,7 +5669,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 11), new long[] {91000,151000});</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="B10" t="s">
         <v>981</v>
       </c>
@@ -5693,7 +5690,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 12), new long[] {104000,184000});</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>982</v>
       </c>
@@ -5717,7 +5714,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 3), new long[] {32000,53000});</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="B12" t="s">
         <v>983</v>
       </c>
@@ -5738,7 +5735,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 4), new long[] {39000,68000});</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="B13" t="s">
         <v>984</v>
       </c>
@@ -5759,7 +5756,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 5), new long[] {50000,91000});</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>985</v>
       </c>
@@ -5780,7 +5777,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 6), new long[] {67000,119000});</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="C15" t="s">
         <v>993</v>
       </c>
@@ -5798,7 +5795,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 7), new long[] {67000,119000});</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>986</v>
       </c>
@@ -5819,7 +5816,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 8), new long[] {85000,144000});</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7">
       <c r="C17" t="s">
         <v>993</v>
       </c>
@@ -5837,7 +5834,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 9), new long[] {85000,144000});</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7">
       <c r="B18" t="s">
         <v>987</v>
       </c>
@@ -5858,7 +5855,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 10), new long[] {100000,164000});</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7">
       <c r="C19" t="s">
         <v>993</v>
       </c>
@@ -5876,7 +5873,7 @@
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 11), new long[] {100000,164000});</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" t="s">
         <v>988</v>
       </c>
@@ -5904,14 +5901,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="16.375" customWidth="1"/>
     <col min="3" max="3" width="34.125" style="3" customWidth="1"/>
@@ -5922,7 +5919,7 @@
     <col min="8" max="8" width="15.75" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>415</v>
       </c>
@@ -5951,7 +5948,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="14" t="s">
         <v>875</v>
       </c>
@@ -5977,7 +5974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="33">
       <c r="A3" s="14" t="s">
         <v>888</v>
       </c>
@@ -6003,7 +6000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="49.5">
       <c r="A4" s="14" t="s">
         <v>857</v>
       </c>
@@ -6029,7 +6026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="49.5">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
@@ -6053,7 +6050,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="33">
       <c r="A6" s="14" t="s">
         <v>872</v>
       </c>
@@ -6079,7 +6076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="33">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -6103,7 +6100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="66">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>16</v>
@@ -6127,7 +6124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="33">
       <c r="A9" s="14" t="s">
         <v>881</v>
       </c>
@@ -6153,7 +6150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="49.5">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>20</v>
@@ -6177,7 +6174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="33">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>23</v>
@@ -6201,7 +6198,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="49.5">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>25</v>
@@ -6225,7 +6222,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="49.5">
       <c r="A13" s="14" t="s">
         <v>876</v>
       </c>
@@ -6251,7 +6248,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="33">
       <c r="A14" s="14" t="s">
         <v>877</v>
       </c>
@@ -6277,7 +6274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="49.5">
       <c r="A15" s="4"/>
       <c r="B15" s="5" t="s">
         <v>32</v>
@@ -6301,7 +6298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="49.5">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>35</v>
@@ -6325,7 +6322,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="49.5">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>38</v>
@@ -6349,7 +6346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="49.5">
       <c r="A18" s="14" t="s">
         <v>867</v>
       </c>
@@ -6375,7 +6372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="33">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>46</v>
@@ -6399,7 +6396,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="49.5">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>49</v>
@@ -6423,7 +6420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="49.5">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>52</v>
@@ -6447,7 +6444,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="49.5">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>55</v>
@@ -6471,7 +6468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="33">
       <c r="A23" s="16"/>
       <c r="B23" s="17" t="s">
         <v>58</v>
@@ -6498,7 +6495,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="33">
       <c r="A24" s="4"/>
       <c r="B24" s="5" t="s">
         <v>60</v>
@@ -6522,7 +6519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="49.5">
       <c r="A25" s="4"/>
       <c r="B25" s="5" t="s">
         <v>63</v>
@@ -6546,7 +6543,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="33">
       <c r="A26" s="14" t="s">
         <v>887</v>
       </c>
@@ -6572,7 +6569,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="33">
       <c r="A27" s="4"/>
       <c r="B27" s="5" t="s">
         <v>689</v>
@@ -6596,7 +6593,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="33">
       <c r="A28" s="14" t="s">
         <v>870</v>
       </c>
@@ -6622,8 +6619,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:9" ht="33">
+      <c r="A29" s="14" t="s">
+        <v>995</v>
+      </c>
       <c r="B29" s="5" t="s">
         <v>68</v>
       </c>
@@ -6646,7 +6645,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="33">
       <c r="A30" s="4"/>
       <c r="B30" s="5" t="s">
         <v>71</v>
@@ -6670,7 +6669,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="33">
       <c r="A31" s="14" t="s">
         <v>886</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="33">
       <c r="A32" s="14" t="s">
         <v>873</v>
       </c>
@@ -6725,7 +6724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="49.5">
       <c r="A33" s="14" t="s">
         <v>879</v>
       </c>
@@ -6751,7 +6750,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="33">
       <c r="A34" s="4"/>
       <c r="B34" s="5" t="s">
         <v>83</v>
@@ -6775,7 +6774,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="49.5">
       <c r="A35" s="4"/>
       <c r="B35" s="5" t="s">
         <v>86</v>
@@ -6799,7 +6798,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="33">
       <c r="A36" s="14" t="s">
         <v>864</v>
       </c>
@@ -6825,7 +6824,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="33">
       <c r="A37" s="4"/>
       <c r="B37" s="5" t="s">
         <v>92</v>
@@ -6849,7 +6848,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="82.5">
       <c r="A38" s="14" t="s">
         <v>871</v>
       </c>
@@ -6875,7 +6874,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="49.5">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
         <v>723</v>
@@ -6899,7 +6898,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="49.5">
       <c r="A40" s="4"/>
       <c r="B40" s="5" t="s">
         <v>99</v>
@@ -6923,7 +6922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="33.75">
       <c r="A41" s="4"/>
       <c r="B41" s="5" t="s">
         <v>729</v>
@@ -6947,7 +6946,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="33.75">
       <c r="A42" s="4"/>
       <c r="B42" s="5" t="s">
         <v>102</v>
@@ -6971,7 +6970,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="33">
       <c r="A43" s="4"/>
       <c r="B43" s="5" t="s">
         <v>104</v>
@@ -6995,7 +6994,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="33">
       <c r="A44" s="4"/>
       <c r="B44" s="5" t="s">
         <v>107</v>
@@ -7019,7 +7018,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="33.75">
       <c r="A45" s="14" t="s">
         <v>883</v>
       </c>
@@ -7045,7 +7044,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="33">
       <c r="A46" s="4"/>
       <c r="B46" s="5" t="s">
         <v>113</v>
@@ -7069,7 +7068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="49.5">
       <c r="A47" s="4"/>
       <c r="B47" s="5" t="s">
         <v>116</v>
@@ -7093,7 +7092,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="33">
       <c r="A48" s="4"/>
       <c r="B48" s="5" t="s">
         <v>119</v>
@@ -7117,7 +7116,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="49.5">
       <c r="A49" s="4"/>
       <c r="B49" s="5" t="s">
         <v>122</v>
@@ -7141,7 +7140,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="33">
       <c r="A50" s="14" t="s">
         <v>874</v>
       </c>
@@ -7167,7 +7166,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="33">
       <c r="A51" s="14" t="s">
         <v>891</v>
       </c>
@@ -7193,7 +7192,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="33">
       <c r="A52" s="4"/>
       <c r="B52" s="5" t="s">
         <v>129</v>
@@ -7217,7 +7216,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="33">
       <c r="A53" s="4"/>
       <c r="B53" s="5" t="s">
         <v>132</v>
@@ -7241,7 +7240,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="33">
       <c r="A54" s="4"/>
       <c r="B54" s="5" t="s">
         <v>135</v>
@@ -7265,7 +7264,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="33">
       <c r="A55" s="4"/>
       <c r="B55" s="5" t="s">
         <v>138</v>
@@ -7289,7 +7288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="33">
       <c r="A56" s="4"/>
       <c r="B56" s="5" t="s">
         <v>141</v>
@@ -7313,7 +7312,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="82.5">
       <c r="A57" s="14" t="s">
         <v>885</v>
       </c>
@@ -7339,7 +7338,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="33">
       <c r="A58" s="4"/>
       <c r="B58" s="5" t="s">
         <v>776</v>
@@ -7363,7 +7362,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="115.5">
       <c r="A59" s="4"/>
       <c r="B59" s="5" t="s">
         <v>148</v>
@@ -7387,7 +7386,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="33">
       <c r="A60" s="4"/>
       <c r="B60" s="5" t="s">
         <v>151</v>
@@ -7411,7 +7410,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="33.75">
       <c r="A61" s="4"/>
       <c r="B61" s="5" t="s">
         <v>154</v>
@@ -7435,7 +7434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="33">
       <c r="A62" s="4"/>
       <c r="B62" s="5" t="s">
         <v>157</v>
@@ -7459,7 +7458,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="49.5">
       <c r="A63" s="4"/>
       <c r="B63" s="5" t="s">
         <v>160</v>
@@ -7483,7 +7482,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="49.5">
       <c r="A64" s="14" t="s">
         <v>889</v>
       </c>
@@ -7509,7 +7508,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="49.5">
       <c r="A65" s="4"/>
       <c r="B65" s="5" t="s">
         <v>164</v>
@@ -7533,7 +7532,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="33">
       <c r="A66" s="14" t="s">
         <v>882</v>
       </c>
@@ -7562,7 +7561,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="49.5">
       <c r="A67" s="4"/>
       <c r="B67" s="5" t="s">
         <v>169</v>
@@ -7586,7 +7585,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="49.5">
       <c r="A68" s="4"/>
       <c r="B68" s="5" t="s">
         <v>172</v>
@@ -7613,7 +7612,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="33.75">
       <c r="A69" s="4"/>
       <c r="B69" s="5" t="s">
         <v>175</v>
@@ -7637,7 +7636,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="33">
       <c r="A70" s="4"/>
       <c r="B70" s="5" t="s">
         <v>178</v>
@@ -7661,7 +7660,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="33">
       <c r="A71" s="4"/>
       <c r="B71" s="5" t="s">
         <v>181</v>
@@ -7685,7 +7684,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="33">
       <c r="A72" s="4"/>
       <c r="B72" s="5" t="s">
         <v>184</v>
@@ -7709,7 +7708,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="33">
       <c r="A73" s="4"/>
       <c r="B73" s="5" t="s">
         <v>186</v>
@@ -7733,7 +7732,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="49.5">
       <c r="A74" s="4"/>
       <c r="B74" s="5" t="s">
         <v>189</v>
@@ -7757,7 +7756,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="49.5">
       <c r="A75" s="4"/>
       <c r="B75" s="5" t="s">
         <v>192</v>
@@ -7781,7 +7780,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="33">
       <c r="A76" s="14" t="s">
         <v>868</v>
       </c>
@@ -7807,7 +7806,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="33">
       <c r="A77" s="4"/>
       <c r="B77" s="5" t="s">
         <v>196</v>
@@ -7831,7 +7830,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="49.5">
       <c r="A78" s="4"/>
       <c r="B78" s="5" t="s">
         <v>199</v>
@@ -7853,7 +7852,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="49.5">
       <c r="A79" s="4"/>
       <c r="B79" s="5" t="s">
         <v>204</v>
@@ -7877,7 +7876,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="49.5">
       <c r="A80" s="14" t="s">
         <v>858</v>
       </c>
@@ -7903,7 +7902,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="33.75">
       <c r="A81" s="14" t="s">
         <v>880</v>
       </c>
@@ -7927,7 +7926,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="49.5">
       <c r="A82" s="14" t="s">
         <v>869</v>
       </c>
@@ -7953,7 +7952,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="33">
       <c r="A83" s="14" t="s">
         <v>884</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="49.5">
       <c r="A84" s="14" t="s">
         <v>865</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="49.5">
       <c r="A85" s="4"/>
       <c r="B85" s="5" t="s">
         <v>218</v>
@@ -8032,7 +8031,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="49.5">
       <c r="A86" s="4"/>
       <c r="B86" s="5" t="s">
         <v>220</v>
@@ -8054,7 +8053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="33">
       <c r="A87" s="4"/>
       <c r="B87" s="5" t="s">
         <v>226</v>
@@ -8078,7 +8077,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="33">
       <c r="A88" s="4"/>
       <c r="B88" s="5" t="s">
         <v>229</v>
@@ -8102,7 +8101,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="33">
       <c r="A89" s="4"/>
       <c r="B89" s="5" t="s">
         <v>232</v>
@@ -8126,7 +8125,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="49.5">
       <c r="A90" s="14" t="s">
         <v>994</v>
       </c>
@@ -8152,7 +8151,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="33">
       <c r="A91" s="4"/>
       <c r="B91" s="5" t="s">
         <v>238</v>
@@ -8176,7 +8175,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="33.75">
       <c r="A92" s="4"/>
       <c r="B92" s="5" t="s">
         <v>240</v>
@@ -8200,7 +8199,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="22.5">
       <c r="A93" s="4"/>
       <c r="B93" s="5" t="s">
         <v>242</v>
@@ -8218,7 +8217,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="33">
       <c r="A94" s="4"/>
       <c r="B94" s="5" t="s">
         <v>245</v>
@@ -8242,7 +8241,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="49.5">
       <c r="A95" s="4"/>
       <c r="B95" s="5" t="s">
         <v>248</v>
@@ -8266,7 +8265,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="33">
       <c r="A96" s="4"/>
       <c r="B96" s="5" t="s">
         <v>250</v>
@@ -8290,7 +8289,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="22.5">
       <c r="A97" s="4"/>
       <c r="B97" s="5" t="s">
         <v>41</v>
@@ -8308,7 +8307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="33.75">
       <c r="A98" s="4"/>
       <c r="B98" s="5" t="s">
         <v>223</v>
@@ -8326,7 +8325,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="22.5">
       <c r="A99" s="4"/>
       <c r="B99" s="5" t="s">
         <v>201</v>
@@ -8344,7 +8343,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="22.5">
       <c r="A100" s="4"/>
       <c r="B100" s="5" t="s">
         <v>469</v>
@@ -8362,7 +8361,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="22.5">
       <c r="A101" s="4"/>
       <c r="B101" s="5" t="s">
         <v>80</v>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="25680" windowHeight="11415" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="25680" windowHeight="11415"/>
   </bookViews>
   <sheets>
     <sheet name="국립자연휴양림" sheetId="2" r:id="rId1"/>
@@ -3564,7 +3564,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3609,6 +3609,31 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF454545"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -3671,7 +3696,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3690,9 +3715,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3703,12 +3725,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3738,11 +3754,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4051,1286 +4079,1286 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="5" width="28.5" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="15.875" style="10" customWidth="1"/>
+    <col min="1" max="2" width="9" style="21"/>
+    <col min="3" max="3" width="19.125" style="21" customWidth="1"/>
+    <col min="4" max="5" width="28.5" style="21" customWidth="1"/>
+    <col min="6" max="6" width="31" style="21" customWidth="1"/>
+    <col min="7" max="8" width="14.875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="21" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="20" t="s">
         <v>892</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="20" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="20" t="s">
         <v>416</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="20" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>933</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>898</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="23" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>934</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>924</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="23" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
         <v>935</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>899</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="23" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>936</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>920</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="24" t="s">
         <v>576</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="23" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>937</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>930</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="23" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>938</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>900</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="24" t="s">
         <v>503</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>939</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>925</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="23" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>940</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>916</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="23" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>941</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>901</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="23" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>942</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>902</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="24" t="s">
         <v>491</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="23" t="s">
         <v>281</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="23" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>943</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>922</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="23" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>944</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>903</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="24" t="s">
         <v>385</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="24" t="s">
         <v>492</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="24" t="s">
         <v>507</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="23" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>945</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>904</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="23" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="22" t="s">
         <v>946</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>917</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="23" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
         <v>947</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>905</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>948</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>893</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="23" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>949</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="24" t="s">
         <v>410</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="23" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>950</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>910</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="23" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
         <v>951</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="23" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>952</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="24" t="s">
         <v>524</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="23" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
         <v>953</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>911</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="24" t="s">
         <v>532</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
         <v>954</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>931</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>955</v>
       </c>
       <c r="B24" s="22" t="s">
         <v>894</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="24" t="s">
         <v>535</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="23" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
         <v>956</v>
       </c>
       <c r="B25" s="22" t="s">
         <v>913</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="24" t="s">
         <v>536</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>957</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>907</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="23" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>958</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>914</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
         <v>959</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>908</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="23" t="s">
         <v>324</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="24" t="s">
         <v>402</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="23" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
         <v>960</v>
       </c>
       <c r="B29" s="22" t="s">
         <v>926</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="23" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
         <v>961</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>895</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="23" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
         <v>962</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>918</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="24" t="s">
         <v>548</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="23" t="s">
         <v>334</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="23" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
         <v>963</v>
       </c>
       <c r="B32" s="22" t="s">
         <v>896</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="24" t="s">
         <v>550</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="23" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
         <v>964</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="24" t="s">
         <v>551</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="23" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
         <v>965</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>897</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="24" t="s">
         <v>554</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="23" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
         <v>966</v>
       </c>
       <c r="B35" s="22" t="s">
         <v>932</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="23" t="s">
         <v>345</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="24" t="s">
         <v>395</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="23" t="s">
         <v>346</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
         <v>967</v>
       </c>
       <c r="B36" s="22" t="s">
         <v>921</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="23" t="s">
         <v>348</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="24" t="s">
         <v>394</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
         <v>968</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>923</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="24" t="s">
         <v>393</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="24" t="s">
         <v>580</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
         <v>969</v>
       </c>
       <c r="B38" s="22" t="s">
         <v>927</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="24" t="s">
         <v>562</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="23" t="s">
         <v>355</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="23" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="22" t="s">
         <v>970</v>
       </c>
       <c r="B39" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D39" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="24" t="s">
         <v>564</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="24" t="s">
         <v>574</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="23" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="22" t="s">
         <v>971</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>928</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="23" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
         <v>972</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>929</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="24" t="s">
         <v>568</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="24" t="s">
         <v>575</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="23" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
         <v>973</v>
       </c>
       <c r="B42" s="22" t="s">
         <v>912</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="23" t="s">
         <v>366</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D42" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="24" t="s">
         <v>570</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="24" t="s">
         <v>571</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="24" t="s">
         <v>582</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="23" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="22" t="s">
         <v>974</v>
       </c>
       <c r="B43" s="22" t="s">
         <v>919</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="23" t="s">
         <v>369</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="24" t="s">
         <v>572</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="24" t="s">
         <v>579</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="23" t="s">
         <v>370</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I43" s="23" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
         <v>975</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>915</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D44" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="24" t="s">
         <v>573</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="23" t="s">
         <v>374</v>
       </c>
     </row>
@@ -5502,13 +5530,13 @@
       <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1" s="19">
         <v>35000</v>
       </c>
-      <c r="F1" s="23">
+      <c r="F1" s="19">
         <v>58000</v>
       </c>
-      <c r="G1" s="23" t="str">
+      <c r="G1" s="19" t="str">
         <f>"PRICE_MAP.put(Objects.hash(RoomType."&amp;C1&amp;", "&amp;D1&amp;"), new long[] {" &amp;E1 &amp; "," &amp;F1&amp;"});"</f>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 3), new long[] {35000,58000});</v>
       </c>
@@ -5523,13 +5551,13 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="19">
         <v>37000</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="19">
         <v>67000</v>
       </c>
-      <c r="G2" s="23" t="str">
+      <c r="G2" s="19" t="str">
         <f t="shared" ref="G2:G20" si="0">"PRICE_MAP.put(Objects.hash(RoomType."&amp;C2&amp;", "&amp;D2&amp;"), new long[] {" &amp;E2 &amp; "," &amp;F2&amp;"});"</f>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 4), new long[] {37000,67000});</v>
       </c>
@@ -5544,13 +5572,13 @@
       <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="19">
         <v>46000</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="19">
         <v>85000</v>
       </c>
-      <c r="G3" s="23" t="str">
+      <c r="G3" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 5), new long[] {46000,85000});</v>
       </c>
@@ -5565,13 +5593,13 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="19">
         <v>58000</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="19">
         <v>104000</v>
       </c>
-      <c r="G4" s="23" t="str">
+      <c r="G4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 6), new long[] {58000,104000});</v>
       </c>
@@ -5583,13 +5611,13 @@
       <c r="D5">
         <v>7</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <v>58000</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <v>104000</v>
       </c>
-      <c r="G5" s="23" t="str">
+      <c r="G5" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 7), new long[] {58000,104000});</v>
       </c>
@@ -5604,13 +5632,13 @@
       <c r="D6">
         <v>8</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="19">
         <v>77000</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="19">
         <v>134000</v>
       </c>
-      <c r="G6" s="23" t="str">
+      <c r="G6" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 8), new long[] {77000,134000});</v>
       </c>
@@ -5622,13 +5650,13 @@
       <c r="D7">
         <v>9</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <v>77000</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="19">
         <v>134000</v>
       </c>
-      <c r="G7" s="23" t="str">
+      <c r="G7" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 9), new long[] {77000,134000});</v>
       </c>
@@ -5643,13 +5671,13 @@
       <c r="D8">
         <v>10</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="19">
         <v>91000</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="19">
         <v>151000</v>
       </c>
-      <c r="G8" s="23" t="str">
+      <c r="G8" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 10), new long[] {91000,151000});</v>
       </c>
@@ -5661,13 +5689,13 @@
       <c r="D9">
         <v>11</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>91000</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="19">
         <v>151000</v>
       </c>
-      <c r="G9" s="23" t="str">
+      <c r="G9" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 11), new long[] {91000,151000});</v>
       </c>
@@ -5682,13 +5710,13 @@
       <c r="D10">
         <v>12</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>104000</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="19">
         <v>184000</v>
       </c>
-      <c r="G10" s="23" t="str">
+      <c r="G10" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 12), new long[] {104000,184000});</v>
       </c>
@@ -5706,13 +5734,13 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="19">
         <v>32000</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="19">
         <v>53000</v>
       </c>
-      <c r="G11" s="23" t="str">
+      <c r="G11" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 3), new long[] {32000,53000});</v>
       </c>
@@ -5727,13 +5755,13 @@
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <v>39000</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="19">
         <v>68000</v>
       </c>
-      <c r="G12" s="23" t="str">
+      <c r="G12" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 4), new long[] {39000,68000});</v>
       </c>
@@ -5748,13 +5776,13 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <v>50000</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="19">
         <v>91000</v>
       </c>
-      <c r="G13" s="23" t="str">
+      <c r="G13" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 5), new long[] {50000,91000});</v>
       </c>
@@ -5769,13 +5797,13 @@
       <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="19">
         <v>67000</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="19">
         <v>119000</v>
       </c>
-      <c r="G14" s="23" t="str">
+      <c r="G14" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 6), new long[] {67000,119000});</v>
       </c>
@@ -5787,13 +5815,13 @@
       <c r="D15">
         <v>7</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="19">
         <v>67000</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="19">
         <v>119000</v>
       </c>
-      <c r="G15" s="23" t="str">
+      <c r="G15" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 7), new long[] {67000,119000});</v>
       </c>
@@ -5808,13 +5836,13 @@
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="19">
         <v>85000</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="19">
         <v>144000</v>
       </c>
-      <c r="G16" s="23" t="str">
+      <c r="G16" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 8), new long[] {85000,144000});</v>
       </c>
@@ -5826,13 +5854,13 @@
       <c r="D17">
         <v>9</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="19">
         <v>85000</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="19">
         <v>144000</v>
       </c>
-      <c r="G17" s="23" t="str">
+      <c r="G17" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 9), new long[] {85000,144000});</v>
       </c>
@@ -5847,13 +5875,13 @@
       <c r="D18">
         <v>10</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="19">
         <v>100000</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="19">
         <v>164000</v>
       </c>
-      <c r="G18" s="23" t="str">
+      <c r="G18" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 10), new long[] {100000,164000});</v>
       </c>
@@ -5865,13 +5893,13 @@
       <c r="D19">
         <v>11</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="19">
         <v>100000</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="19">
         <v>164000</v>
       </c>
-      <c r="G19" s="23" t="str">
+      <c r="G19" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 11), new long[] {100000,164000});</v>
       </c>
@@ -5886,13 +5914,13 @@
       <c r="D20">
         <v>12</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="19">
         <v>107000</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="19">
         <v>186000</v>
       </c>
-      <c r="G20" s="23" t="str">
+      <c r="G20" s="19" t="str">
         <f t="shared" si="0"/>
         <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 12), new long[] {107000,186000});</v>
       </c>
@@ -5907,7 +5935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
@@ -5917,9 +5945,9 @@
     <col min="3" max="3" width="34.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="31.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="8" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="8" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -5947,85 +5975,85 @@
       <c r="H1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>875</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>888</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="11" t="s">
         <v>857</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6034,48 +6062,48 @@
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="11" t="s">
         <v>872</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6084,22 +6112,22 @@
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6108,48 +6136,48 @@
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>881</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6158,22 +6186,22 @@
       <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6182,22 +6210,22 @@
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>644</v>
       </c>
     </row>
@@ -6206,74 +6234,74 @@
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="11" t="s">
         <v>876</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>877</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6282,22 +6310,22 @@
       <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -6306,22 +6334,22 @@
       <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6330,48 +6358,48 @@
       <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="11" t="s">
         <v>867</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -6380,22 +6408,22 @@
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6404,22 +6432,22 @@
       <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6428,22 +6456,22 @@
       <c r="B21" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6452,49 +6480,49 @@
       <c r="B22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="18" t="s">
         <v>890</v>
       </c>
     </row>
@@ -6503,22 +6531,22 @@
       <c r="B24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -6527,48 +6555,48 @@
       <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="11" t="s">
         <v>887</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6577,48 +6605,48 @@
       <c r="B27" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>688</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>692</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="11" t="s">
         <v>870</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -6627,22 +6655,22 @@
       <c r="B29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6651,103 +6679,103 @@
       <c r="B30" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="11" t="s">
         <v>886</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="12" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="11" t="s">
         <v>873</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>704</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="11" t="s">
         <v>879</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6756,22 +6784,22 @@
       <c r="B34" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -6780,48 +6808,48 @@
       <c r="B35" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="11" t="s">
         <v>864</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="6" t="s">
         <v>716</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6830,48 +6858,48 @@
       <c r="B37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="11" t="s">
         <v>871</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="8" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6880,22 +6908,22 @@
       <c r="B39" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6904,22 +6932,22 @@
       <c r="B40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6928,22 +6956,22 @@
       <c r="B41" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>730</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>732</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
         <v>733</v>
       </c>
     </row>
@@ -6952,22 +6980,22 @@
       <c r="B42" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="8" t="s">
         <v>734</v>
       </c>
     </row>
@@ -6976,22 +7004,22 @@
       <c r="B43" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -7000,48 +7028,48 @@
       <c r="B44" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="11" t="s">
         <v>883</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -7050,22 +7078,22 @@
       <c r="B46" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="8" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7074,22 +7102,22 @@
       <c r="B47" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7098,22 +7126,22 @@
       <c r="B48" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7122,74 +7150,74 @@
       <c r="B49" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="8" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="11" t="s">
         <v>874</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="11" t="s">
         <v>891</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7198,22 +7226,22 @@
       <c r="B52" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7222,22 +7250,22 @@
       <c r="B53" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7246,22 +7274,22 @@
       <c r="B54" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7270,22 +7298,22 @@
       <c r="B55" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="8" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7294,48 +7322,48 @@
       <c r="B56" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="8" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="11" t="s">
         <v>885</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="8" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7344,22 +7372,22 @@
       <c r="B58" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="8" t="s">
         <v>775</v>
       </c>
     </row>
@@ -7368,22 +7396,22 @@
       <c r="B59" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="7" t="s">
         <v>779</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="8" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7392,22 +7420,22 @@
       <c r="B60" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="6" t="s">
         <v>782</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -7416,22 +7444,22 @@
       <c r="B61" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="8" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7440,22 +7468,22 @@
       <c r="B62" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="6" t="s">
         <v>786</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="7" t="s">
         <v>787</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="8" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7464,48 +7492,48 @@
       <c r="B63" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="11" t="s">
         <v>889</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="6" t="s">
         <v>790</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>791</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7514,51 +7542,51 @@
       <c r="B65" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="11" t="s">
         <v>882</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="12" t="s">
         <v>863</v>
       </c>
     </row>
@@ -7567,22 +7595,22 @@
       <c r="B67" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="8" t="s">
         <v>171</v>
       </c>
     </row>
@@ -7591,25 +7619,25 @@
       <c r="B68" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="12" t="s">
         <v>860</v>
       </c>
     </row>
@@ -7618,22 +7646,22 @@
       <c r="B69" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7642,22 +7670,22 @@
       <c r="B70" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="8" t="s">
         <v>180</v>
       </c>
     </row>
@@ -7666,22 +7694,22 @@
       <c r="B71" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="8" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7690,22 +7718,22 @@
       <c r="B72" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -7714,22 +7742,22 @@
       <c r="B73" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="7" t="s">
         <v>811</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="8" t="s">
         <v>188</v>
       </c>
     </row>
@@ -7738,22 +7766,22 @@
       <c r="B74" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="8" t="s">
         <v>191</v>
       </c>
     </row>
@@ -7762,48 +7790,48 @@
       <c r="B75" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="7" t="s">
         <v>815</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="11" t="s">
         <v>868</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="8" t="s">
         <v>195</v>
       </c>
     </row>
@@ -7812,22 +7840,22 @@
       <c r="B77" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="8" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7836,20 +7864,20 @@
       <c r="B78" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8" t="s">
+      <c r="D78" s="6"/>
+      <c r="E78" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="8" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7858,150 +7886,150 @@
       <c r="B79" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="7" t="s">
         <v>823</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="11" t="s">
         <v>858</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="14" t="s">
+      <c r="A81" s="11" t="s">
         <v>880</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="8" t="s">
+      <c r="D81" s="6"/>
+      <c r="E81" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="8" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="11" t="s">
         <v>869</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="8" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="11" t="s">
         <v>884</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="14" t="s">
+      <c r="A84" s="11" t="s">
         <v>865</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="8" t="s">
         <v>830</v>
       </c>
     </row>
@@ -8010,25 +8038,25 @@
       <c r="B85" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="12" t="s">
         <v>859</v>
       </c>
     </row>
@@ -8037,20 +8065,20 @@
       <c r="B86" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8" t="s">
+      <c r="D86" s="6"/>
+      <c r="E86" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -8059,22 +8087,22 @@
       <c r="B87" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="8" t="s">
         <v>228</v>
       </c>
     </row>
@@ -8083,22 +8111,22 @@
       <c r="B88" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="8" t="s">
         <v>231</v>
       </c>
     </row>
@@ -8107,48 +8135,48 @@
       <c r="B89" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="8" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="11" t="s">
         <v>994</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="G90" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="8" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8157,22 +8185,22 @@
       <c r="B91" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>847</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -8181,22 +8209,22 @@
       <c r="B92" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="8" t="s">
         <v>241</v>
       </c>
     </row>
@@ -8205,16 +8233,16 @@
       <c r="B93" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="8" t="s">
         <v>244</v>
       </c>
     </row>
@@ -8223,22 +8251,22 @@
       <c r="B94" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="8" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8247,22 +8275,22 @@
       <c r="B95" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="6" t="s">
         <v>736</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="8" t="s">
         <v>249</v>
       </c>
     </row>
@@ -8271,22 +8299,22 @@
       <c r="B96" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="8" t="s">
         <v>252</v>
       </c>
     </row>
@@ -8295,16 +8323,16 @@
       <c r="B97" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="9" t="s">
+      <c r="F97" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8313,16 +8341,16 @@
       <c r="B98" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="9" t="s">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="8" t="s">
         <v>225</v>
       </c>
     </row>
@@ -8331,16 +8359,16 @@
       <c r="B99" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="9" t="s">
+      <c r="F99" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="8" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8349,16 +8377,16 @@
       <c r="B100" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="9" t="s">
+      <c r="F100" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="8" t="s">
         <v>45</v>
       </c>
     </row>
@@ -8367,16 +8395,16 @@
       <c r="B101" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="9" t="s">
+      <c r="F101" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="8" t="s">
         <v>82</v>
       </c>
     </row>

--- a/휴양림.xlsx
+++ b/휴양림.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectHome\workspace\honsul-inthewood-spider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="25680" windowHeight="11415" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="25680" windowHeight="11415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="국립자연휴양림" sheetId="2" r:id="rId1"/>
-    <sheet name="지자체자연휴양림" sheetId="1" r:id="rId2"/>
+    <sheet name="국립자연휴양림 요금표" sheetId="3" r:id="rId2"/>
+    <sheet name="지자체자연휴양림" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">지자체자연휴양림!$A$1:$I$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">지자체자연휴양림!$A$1:$I$101</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="997">
   <si>
     <t>가리산자연휴양림</t>
   </si>
@@ -3197,7 +3203,357 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAPTCHA</t>
+    <t>파트코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0224</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0244</t>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0243</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0242</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0191</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0220</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0189</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0194</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0181</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0195</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0193</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0192</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N003</t>
+  </si>
+  <si>
+    <t>N004</t>
+  </si>
+  <si>
+    <t>N005</t>
+  </si>
+  <si>
+    <t>N006</t>
+  </si>
+  <si>
+    <t>N007</t>
+  </si>
+  <si>
+    <t>N008</t>
+  </si>
+  <si>
+    <t>N009</t>
+  </si>
+  <si>
+    <t>N010</t>
+  </si>
+  <si>
+    <t>N011</t>
+  </si>
+  <si>
+    <t>N012</t>
+  </si>
+  <si>
+    <t>N013</t>
+  </si>
+  <si>
+    <t>N014</t>
+  </si>
+  <si>
+    <t>N015</t>
+  </si>
+  <si>
+    <t>N016</t>
+  </si>
+  <si>
+    <t>N017</t>
+  </si>
+  <si>
+    <t>N018</t>
+  </si>
+  <si>
+    <t>N019</t>
+  </si>
+  <si>
+    <t>N020</t>
+  </si>
+  <si>
+    <t>N021</t>
+  </si>
+  <si>
+    <t>N022</t>
+  </si>
+  <si>
+    <t>N023</t>
+  </si>
+  <si>
+    <t>N024</t>
+  </si>
+  <si>
+    <t>N025</t>
+  </si>
+  <si>
+    <t>N026</t>
+  </si>
+  <si>
+    <t>N027</t>
+  </si>
+  <si>
+    <t>N028</t>
+  </si>
+  <si>
+    <t>N029</t>
+  </si>
+  <si>
+    <t>N030</t>
+  </si>
+  <si>
+    <t>N031</t>
+  </si>
+  <si>
+    <t>N032</t>
+  </si>
+  <si>
+    <t>N033</t>
+  </si>
+  <si>
+    <t>N034</t>
+  </si>
+  <si>
+    <t>N035</t>
+  </si>
+  <si>
+    <t>N036</t>
+  </si>
+  <si>
+    <t>N037</t>
+  </si>
+  <si>
+    <t>N038</t>
+  </si>
+  <si>
+    <t>N039</t>
+  </si>
+  <si>
+    <t>N040</t>
+  </si>
+  <si>
+    <t>N041</t>
+  </si>
+  <si>
+    <t>N042</t>
+  </si>
+  <si>
+    <t>N043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3인실(18㎡이하) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5인실(29㎡~33㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6~7인실(34㎡~44㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8~9인실(45㎡~57㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10~11인실(58㎡~67㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12인실 이상(68㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">산림문화 휴양관 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4인실 (19㎡~28㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5인실 (29㎡~33㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6~7인실 (34㎡~44㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8~9인실 (45㎡~57㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10~11인실 (58㎡~67㎡) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12인실 이상 (68㎡) </t>
+  </si>
+  <si>
+    <t>숲속의집/연립동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3인실(18㎡이하) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4인실(19㎡~28㎡) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONDO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>R028</t>
@@ -3208,15 +3564,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오픈전</t>
+    <t>R030</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3265,10 +3621,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF454545"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3329,75 +3704,72 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3460,7 +3832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3492,9 +3864,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3526,6 +3899,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3701,1210 +4075,1423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="10" customWidth="1"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="19.125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="28.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31" style="4" customWidth="1"/>
+    <col min="7" max="8" width="14.875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>933</v>
+      </c>
       <c r="B2" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>934</v>
+      </c>
       <c r="B3" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>935</v>
+      </c>
       <c r="B4" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33.75">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>936</v>
+      </c>
       <c r="B5" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="33">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>937</v>
+      </c>
       <c r="B6" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>938</v>
+      </c>
       <c r="B7" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="G7" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="33">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>939</v>
+      </c>
       <c r="B8" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33.75">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>940</v>
+      </c>
       <c r="B9" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="33">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>941</v>
+      </c>
       <c r="B10" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="I10" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33">
-      <c r="A11" s="4"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>942</v>
+      </c>
       <c r="B11" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="33">
-      <c r="A12" s="4"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>943</v>
+      </c>
       <c r="B12" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>944</v>
+      </c>
       <c r="B13" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="33">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>945</v>
+      </c>
       <c r="B14" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="33">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>946</v>
+      </c>
       <c r="B15" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>947</v>
+      </c>
       <c r="B16" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="H16" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="33">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>948</v>
+      </c>
       <c r="B17" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="33">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>949</v>
+      </c>
       <c r="B18" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="H18" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="33.75">
-      <c r="A19" s="4"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>950</v>
+      </c>
       <c r="B19" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="I19" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="49.5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="49.5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>952</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="H21" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="33">
-      <c r="A22" s="4"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>953</v>
+      </c>
       <c r="B22" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="I22" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="33.75">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>954</v>
+      </c>
       <c r="B23" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="H23" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="33">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>955</v>
+      </c>
       <c r="B24" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="G24" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="6" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="33">
-      <c r="A25" s="4"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>956</v>
+      </c>
       <c r="B25" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="G25" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="H25" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="I25" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="33">
-      <c r="A26" s="4"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>957</v>
+      </c>
       <c r="B26" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="G26" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="H26" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="I26" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="33.75">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>958</v>
+      </c>
       <c r="B27" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="G27" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="H27" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="I27" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="33">
-      <c r="A28" s="4"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>959</v>
+      </c>
       <c r="B28" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="H28" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="I28" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="33">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>960</v>
+      </c>
       <c r="B29" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="H29" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="I29" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="33">
-      <c r="A30" s="4"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>961</v>
+      </c>
       <c r="B30" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="G30" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="H30" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="I30" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="33">
-      <c r="A31" s="4"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>962</v>
+      </c>
       <c r="B31" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="H31" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="I31" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="33">
-      <c r="A32" s="4"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>963</v>
+      </c>
       <c r="B32" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="G32" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="I32" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="D33" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="G33" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="I33" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="4"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>965</v>
+      </c>
       <c r="B34" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="G34" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="H34" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="33">
-      <c r="A35" s="4"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>966</v>
+      </c>
       <c r="B35" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="G35" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="H35" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="I35" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33.75">
-      <c r="A36" s="4"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>967</v>
+      </c>
       <c r="B36" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="G36" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33.75">
-      <c r="A37" s="4"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>968</v>
+      </c>
       <c r="B37" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="G37" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="H37" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="33">
-      <c r="A38" s="4"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>969</v>
+      </c>
       <c r="B38" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="F38" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="G38" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="H38" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="6" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="33">
-      <c r="A39" s="4"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>970</v>
+      </c>
       <c r="B39" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="D39" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="F39" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="G39" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="H39" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="I39" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="33">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>971</v>
+      </c>
       <c r="B40" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="D40" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="G40" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="H40" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="I40" s="6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33">
-      <c r="A41" s="4"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>972</v>
+      </c>
       <c r="B41" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="D41" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F41" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="G41" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="I41" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33.75">
-      <c r="A42" s="4"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>973</v>
+      </c>
       <c r="B42" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="D42" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="F42" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="G42" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="H42" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="I42" s="6" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="82.5">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>974</v>
+      </c>
       <c r="B43" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="D43" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="H43" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="I43" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="33">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>975</v>
+      </c>
       <c r="B44" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="C44" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="F44" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="I44" s="6" t="s">
         <v>374</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C44" r:id="rId14"/>
-    <hyperlink ref="C43" r:id="rId15"/>
-    <hyperlink ref="C42" r:id="rId16"/>
-    <hyperlink ref="C41" r:id="rId17"/>
-    <hyperlink ref="C40" r:id="rId18"/>
-    <hyperlink ref="C39" r:id="rId19"/>
-    <hyperlink ref="C38" r:id="rId20"/>
-    <hyperlink ref="C37" r:id="rId21"/>
-    <hyperlink ref="C36" r:id="rId22"/>
-    <hyperlink ref="C35" r:id="rId23"/>
-    <hyperlink ref="C34" r:id="rId24"/>
-    <hyperlink ref="C33" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C31" r:id="rId27"/>
-    <hyperlink ref="C30" r:id="rId28"/>
-    <hyperlink ref="C29" r:id="rId29"/>
-    <hyperlink ref="C28" r:id="rId30"/>
-    <hyperlink ref="C27" r:id="rId31"/>
-    <hyperlink ref="C26" r:id="rId32"/>
-    <hyperlink ref="C25" r:id="rId33"/>
-    <hyperlink ref="C24" r:id="rId34"/>
-    <hyperlink ref="C23" r:id="rId35"/>
-    <hyperlink ref="C22" r:id="rId36"/>
-    <hyperlink ref="C19" r:id="rId37"/>
-    <hyperlink ref="C18" r:id="rId38"/>
-    <hyperlink ref="C17" r:id="rId39"/>
-    <hyperlink ref="C16" r:id="rId40"/>
-    <hyperlink ref="C15" r:id="rId41"/>
-    <hyperlink ref="E2" r:id="rId42"/>
-    <hyperlink ref="E3" r:id="rId43"/>
-    <hyperlink ref="E4" r:id="rId44"/>
-    <hyperlink ref="E5" r:id="rId45"/>
-    <hyperlink ref="E6" r:id="rId46"/>
-    <hyperlink ref="E7" r:id="rId47"/>
-    <hyperlink ref="E8" r:id="rId48"/>
-    <hyperlink ref="E10" r:id="rId49"/>
-    <hyperlink ref="D13" r:id="rId50"/>
-    <hyperlink ref="D12" r:id="rId51"/>
-    <hyperlink ref="D9" r:id="rId52"/>
-    <hyperlink ref="D10" r:id="rId53"/>
-    <hyperlink ref="E9" r:id="rId54"/>
-    <hyperlink ref="D2" r:id="rId55"/>
-    <hyperlink ref="D3" r:id="rId56"/>
-    <hyperlink ref="D4" r:id="rId57"/>
-    <hyperlink ref="D5" r:id="rId58"/>
-    <hyperlink ref="D6" r:id="rId59"/>
-    <hyperlink ref="D7" r:id="rId60"/>
-    <hyperlink ref="D8" r:id="rId61"/>
-    <hyperlink ref="E11" r:id="rId62"/>
-    <hyperlink ref="E12" r:id="rId63"/>
-    <hyperlink ref="E13" r:id="rId64"/>
-    <hyperlink ref="D14" r:id="rId65"/>
-    <hyperlink ref="E14" r:id="rId66"/>
-    <hyperlink ref="D15" r:id="rId67"/>
-    <hyperlink ref="E15" r:id="rId68"/>
-    <hyperlink ref="D16" r:id="rId69"/>
-    <hyperlink ref="E16" r:id="rId70"/>
-    <hyperlink ref="D17" r:id="rId71"/>
-    <hyperlink ref="E17" r:id="rId72"/>
-    <hyperlink ref="D18" r:id="rId73"/>
-    <hyperlink ref="E18" r:id="rId74"/>
-    <hyperlink ref="D19" r:id="rId75"/>
-    <hyperlink ref="E19" r:id="rId76"/>
-    <hyperlink ref="C20" r:id="rId77"/>
-    <hyperlink ref="D20" r:id="rId78"/>
-    <hyperlink ref="C21" r:id="rId79"/>
-    <hyperlink ref="D21" r:id="rId80"/>
-    <hyperlink ref="E20" r:id="rId81"/>
-    <hyperlink ref="E21" r:id="rId82"/>
-    <hyperlink ref="D22" r:id="rId83"/>
-    <hyperlink ref="E22" r:id="rId84"/>
-    <hyperlink ref="D23" r:id="rId85"/>
-    <hyperlink ref="E23" r:id="rId86"/>
-    <hyperlink ref="E24" r:id="rId87"/>
-    <hyperlink ref="D25" r:id="rId88"/>
-    <hyperlink ref="E25" r:id="rId89"/>
-    <hyperlink ref="D26" r:id="rId90"/>
-    <hyperlink ref="E26" r:id="rId91"/>
-    <hyperlink ref="D27" r:id="rId92"/>
-    <hyperlink ref="E27" r:id="rId93"/>
-    <hyperlink ref="E28" r:id="rId94"/>
-    <hyperlink ref="D29" r:id="rId95"/>
-    <hyperlink ref="E29" r:id="rId96"/>
-    <hyperlink ref="D30" r:id="rId97"/>
-    <hyperlink ref="E30" r:id="rId98"/>
-    <hyperlink ref="D31" r:id="rId99"/>
-    <hyperlink ref="E31" r:id="rId100"/>
-    <hyperlink ref="D32" r:id="rId101"/>
-    <hyperlink ref="E32" r:id="rId102"/>
-    <hyperlink ref="D33" r:id="rId103"/>
-    <hyperlink ref="E33" r:id="rId104"/>
-    <hyperlink ref="D34" r:id="rId105"/>
-    <hyperlink ref="E34" r:id="rId106"/>
-    <hyperlink ref="D35" r:id="rId107"/>
-    <hyperlink ref="E35" r:id="rId108"/>
-    <hyperlink ref="D36" r:id="rId109"/>
-    <hyperlink ref="E36" r:id="rId110"/>
-    <hyperlink ref="D37" r:id="rId111"/>
-    <hyperlink ref="E37" r:id="rId112"/>
-    <hyperlink ref="D38" r:id="rId113"/>
-    <hyperlink ref="E38" r:id="rId114"/>
-    <hyperlink ref="D39" r:id="rId115"/>
-    <hyperlink ref="E39" r:id="rId116"/>
-    <hyperlink ref="D40" r:id="rId117"/>
-    <hyperlink ref="E40" r:id="rId118"/>
-    <hyperlink ref="D41" r:id="rId119"/>
-    <hyperlink ref="E41" r:id="rId120"/>
-    <hyperlink ref="E42" r:id="rId121"/>
-    <hyperlink ref="E43" r:id="rId122"/>
-    <hyperlink ref="D44" r:id="rId123"/>
-    <hyperlink ref="E44" r:id="rId124"/>
-    <hyperlink ref="D43" r:id="rId125"/>
-    <hyperlink ref="D42" r:id="rId126"/>
-    <hyperlink ref="D24" r:id="rId127"/>
-    <hyperlink ref="D11" r:id="rId128"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D44" r:id="rId14"/>
+    <hyperlink ref="D43" r:id="rId15"/>
+    <hyperlink ref="D42" r:id="rId16"/>
+    <hyperlink ref="D41" r:id="rId17"/>
+    <hyperlink ref="D40" r:id="rId18"/>
+    <hyperlink ref="D39" r:id="rId19"/>
+    <hyperlink ref="D38" r:id="rId20"/>
+    <hyperlink ref="D37" r:id="rId21"/>
+    <hyperlink ref="D36" r:id="rId22"/>
+    <hyperlink ref="D35" r:id="rId23"/>
+    <hyperlink ref="D34" r:id="rId24"/>
+    <hyperlink ref="D33" r:id="rId25"/>
+    <hyperlink ref="D32" r:id="rId26"/>
+    <hyperlink ref="D31" r:id="rId27"/>
+    <hyperlink ref="D30" r:id="rId28"/>
+    <hyperlink ref="D29" r:id="rId29"/>
+    <hyperlink ref="D28" r:id="rId30"/>
+    <hyperlink ref="D27" r:id="rId31"/>
+    <hyperlink ref="D26" r:id="rId32"/>
+    <hyperlink ref="D25" r:id="rId33"/>
+    <hyperlink ref="D24" r:id="rId34"/>
+    <hyperlink ref="D23" r:id="rId35"/>
+    <hyperlink ref="D22" r:id="rId36"/>
+    <hyperlink ref="D19" r:id="rId37"/>
+    <hyperlink ref="D18" r:id="rId38"/>
+    <hyperlink ref="D17" r:id="rId39"/>
+    <hyperlink ref="D16" r:id="rId40"/>
+    <hyperlink ref="D15" r:id="rId41"/>
+    <hyperlink ref="F2" r:id="rId42"/>
+    <hyperlink ref="F3" r:id="rId43"/>
+    <hyperlink ref="F4" r:id="rId44"/>
+    <hyperlink ref="F5" r:id="rId45"/>
+    <hyperlink ref="F6" r:id="rId46"/>
+    <hyperlink ref="F7" r:id="rId47"/>
+    <hyperlink ref="F8" r:id="rId48"/>
+    <hyperlink ref="F10" r:id="rId49"/>
+    <hyperlink ref="E13" r:id="rId50"/>
+    <hyperlink ref="E12" r:id="rId51"/>
+    <hyperlink ref="E9" r:id="rId52"/>
+    <hyperlink ref="E10" r:id="rId53"/>
+    <hyperlink ref="F9" r:id="rId54"/>
+    <hyperlink ref="E2" r:id="rId55"/>
+    <hyperlink ref="E3" r:id="rId56"/>
+    <hyperlink ref="E4" r:id="rId57"/>
+    <hyperlink ref="E5" r:id="rId58"/>
+    <hyperlink ref="E6" r:id="rId59"/>
+    <hyperlink ref="E7" r:id="rId60"/>
+    <hyperlink ref="E8" r:id="rId61"/>
+    <hyperlink ref="F11" r:id="rId62"/>
+    <hyperlink ref="F12" r:id="rId63"/>
+    <hyperlink ref="F13" r:id="rId64"/>
+    <hyperlink ref="E14" r:id="rId65"/>
+    <hyperlink ref="F14" r:id="rId66"/>
+    <hyperlink ref="E15" r:id="rId67"/>
+    <hyperlink ref="F15" r:id="rId68"/>
+    <hyperlink ref="E16" r:id="rId69"/>
+    <hyperlink ref="F16" r:id="rId70"/>
+    <hyperlink ref="E17" r:id="rId71"/>
+    <hyperlink ref="F17" r:id="rId72"/>
+    <hyperlink ref="E18" r:id="rId73"/>
+    <hyperlink ref="F18" r:id="rId74"/>
+    <hyperlink ref="E19" r:id="rId75"/>
+    <hyperlink ref="F19" r:id="rId76"/>
+    <hyperlink ref="D20" r:id="rId77"/>
+    <hyperlink ref="E20" r:id="rId78"/>
+    <hyperlink ref="D21" r:id="rId79"/>
+    <hyperlink ref="E21" r:id="rId80"/>
+    <hyperlink ref="F20" r:id="rId81"/>
+    <hyperlink ref="F21" r:id="rId82"/>
+    <hyperlink ref="E22" r:id="rId83"/>
+    <hyperlink ref="F22" r:id="rId84"/>
+    <hyperlink ref="E23" r:id="rId85"/>
+    <hyperlink ref="F23" r:id="rId86"/>
+    <hyperlink ref="F24" r:id="rId87"/>
+    <hyperlink ref="E25" r:id="rId88"/>
+    <hyperlink ref="F25" r:id="rId89"/>
+    <hyperlink ref="E26" r:id="rId90"/>
+    <hyperlink ref="F26" r:id="rId91"/>
+    <hyperlink ref="E27" r:id="rId92"/>
+    <hyperlink ref="F27" r:id="rId93"/>
+    <hyperlink ref="F28" r:id="rId94"/>
+    <hyperlink ref="E29" r:id="rId95"/>
+    <hyperlink ref="F29" r:id="rId96"/>
+    <hyperlink ref="E30" r:id="rId97"/>
+    <hyperlink ref="F30" r:id="rId98"/>
+    <hyperlink ref="E31" r:id="rId99"/>
+    <hyperlink ref="F31" r:id="rId100"/>
+    <hyperlink ref="E32" r:id="rId101"/>
+    <hyperlink ref="F32" r:id="rId102"/>
+    <hyperlink ref="E33" r:id="rId103"/>
+    <hyperlink ref="F33" r:id="rId104"/>
+    <hyperlink ref="E34" r:id="rId105"/>
+    <hyperlink ref="F34" r:id="rId106"/>
+    <hyperlink ref="E35" r:id="rId107"/>
+    <hyperlink ref="F35" r:id="rId108"/>
+    <hyperlink ref="E36" r:id="rId109"/>
+    <hyperlink ref="F36" r:id="rId110"/>
+    <hyperlink ref="E37" r:id="rId111"/>
+    <hyperlink ref="F37" r:id="rId112"/>
+    <hyperlink ref="E38" r:id="rId113"/>
+    <hyperlink ref="F38" r:id="rId114"/>
+    <hyperlink ref="E39" r:id="rId115"/>
+    <hyperlink ref="F39" r:id="rId116"/>
+    <hyperlink ref="E40" r:id="rId117"/>
+    <hyperlink ref="F40" r:id="rId118"/>
+    <hyperlink ref="E41" r:id="rId119"/>
+    <hyperlink ref="F41" r:id="rId120"/>
+    <hyperlink ref="F42" r:id="rId121"/>
+    <hyperlink ref="F43" r:id="rId122"/>
+    <hyperlink ref="E44" r:id="rId123"/>
+    <hyperlink ref="F44" r:id="rId124"/>
+    <hyperlink ref="E43" r:id="rId125"/>
+    <hyperlink ref="E42" r:id="rId126"/>
+    <hyperlink ref="E24" r:id="rId127"/>
+    <hyperlink ref="E11" r:id="rId128"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
@@ -4912,32 +5499,466 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>35000</v>
+      </c>
+      <c r="F1" s="2">
+        <v>58000</v>
+      </c>
+      <c r="G1" s="2" t="str">
+        <f>"PRICE_MAP.put(Objects.hash(RoomType."&amp;C1&amp;", "&amp;D1&amp;"), new long[] {" &amp;E1 &amp; "," &amp;F1&amp;"});"</f>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 3), new long[] {35000,58000});</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>67000</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f t="shared" ref="G2:G20" si="0">"PRICE_MAP.put(Objects.hash(RoomType."&amp;C2&amp;", "&amp;D2&amp;"), new long[] {" &amp;E2 &amp; "," &amp;F2&amp;"});"</f>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 4), new long[] {37000,67000});</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>46000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>85000</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 5), new long[] {46000,85000});</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>978</v>
+      </c>
+      <c r="C4" t="s">
+        <v>992</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>58000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>104000</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 6), new long[] {58000,104000});</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>992</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>58000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>104000</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 7), new long[] {58000,104000});</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>979</v>
+      </c>
+      <c r="C6" t="s">
+        <v>992</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2">
+        <v>77000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>134000</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 8), new long[] {77000,134000});</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>992</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>77000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>134000</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 9), new long[] {77000,134000});</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>980</v>
+      </c>
+      <c r="C8" t="s">
+        <v>992</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2">
+        <v>91000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>151000</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 10), new long[] {91000,151000});</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>992</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2">
+        <v>91000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>151000</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 11), new long[] {91000,151000});</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>981</v>
+      </c>
+      <c r="C10" t="s">
+        <v>992</v>
+      </c>
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2">
+        <v>104000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>184000</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.HUT, 12), new long[] {104000,184000});</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>982</v>
+      </c>
+      <c r="B11" t="s">
+        <v>976</v>
+      </c>
+      <c r="C11" t="s">
+        <v>993</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
+        <v>32000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>53000</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 3), new long[] {32000,53000});</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>983</v>
+      </c>
+      <c r="C12" t="s">
+        <v>993</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>39000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>68000</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 4), new long[] {39000,68000});</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>984</v>
+      </c>
+      <c r="C13" t="s">
+        <v>993</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>50000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>91000</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 5), new long[] {50000,91000});</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>985</v>
+      </c>
+      <c r="C14" t="s">
+        <v>993</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>67000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>119000</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 6), new long[] {67000,119000});</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>993</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>67000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>119000</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 7), new long[] {67000,119000});</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>986</v>
+      </c>
+      <c r="C16" t="s">
+        <v>993</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>85000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>144000</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 8), new long[] {85000,144000});</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>993</v>
+      </c>
+      <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>85000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>144000</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 9), new long[] {85000,144000});</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>987</v>
+      </c>
+      <c r="C18" t="s">
+        <v>993</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>164000</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 10), new long[] {100000,164000});</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>993</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>100000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>164000</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 11), new long[] {100000,164000});</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>988</v>
+      </c>
+      <c r="C20" t="s">
+        <v>993</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>107000</v>
+      </c>
+      <c r="F20" s="2">
+        <v>186000</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>PRICE_MAP.put(Objects.hash(RoomType.CONDO, 12), new long[] {107000,186000});</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="8" style="10" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9" style="9"/>
+    <col min="2" max="2" width="16.375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="31.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8" style="21" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>415</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>414</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -4955,2451 +5976,2445 @@
       <c r="H1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="8" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="33">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>875</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="49.5">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>857</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="49.5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="33">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>872</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="33">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="66">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="12" t="s">
         <v>638</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="33">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="49.5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="12" t="s">
         <v>642</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="13" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="49.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="13" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="49.5">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>876</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="13" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33">
-      <c r="A14" s="14" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>877</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="49.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="49.5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="12" t="s">
         <v>658</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="49.5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="12" t="s">
         <v>661</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="49.5">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
         <v>867</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="33">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I19" s="21" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="49.5">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="B20" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="49.5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="49.5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="12" t="s">
         <v>674</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="33">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="17" t="s">
         <v>678</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>574</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="18" t="s">
         <v>676</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="19" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="33">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="12" t="s">
         <v>680</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="49.5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="12" t="s">
         <v>682</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="13" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="33">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="12" t="s">
         <v>686</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="33">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="11" t="s">
         <v>689</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="13" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="33">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>870</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="12" t="s">
         <v>697</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="12" t="s">
         <v>698</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="33">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="12" t="s">
         <v>699</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="12" t="s">
         <v>700</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="33">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="33">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
         <v>886</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="12" t="s">
         <v>701</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="12" t="s">
         <v>702</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="20" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="33">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="12" t="s">
         <v>705</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="49.5">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="12" t="s">
         <v>878</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="12" t="s">
         <v>709</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="12" t="s">
         <v>708</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="12" t="s">
         <v>713</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="49.5">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="12" t="s">
         <v>715</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="33">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>864</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="12" t="s">
         <v>716</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="33">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="82.5">
-      <c r="A38" s="14" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="49.5">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="49.5">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
+      <c r="B40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33.75">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="13" t="s">
         <v>732</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="13" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="33.75">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="13" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="33">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="12" t="s">
         <v>742</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="12" t="s">
         <v>741</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="33">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H44" s="9" t="s">
+      <c r="H44" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="33.75">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>883</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="12" t="s">
         <v>745</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H45" s="9" t="s">
+      <c r="H45" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="33">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="12" t="s">
         <v>749</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="F46" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="H46" s="9" t="s">
+      <c r="H46" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="49.5">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="F47" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="H47" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="33">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="12" t="s">
         <v>753</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="49.5">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="12" t="s">
         <v>754</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="12" t="s">
         <v>755</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F49" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="H49" s="9" t="s">
+      <c r="H49" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="33">
-      <c r="A50" s="14" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="12" t="s">
         <v>756</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="12" t="s">
         <v>757</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="12" t="s">
         <v>758</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F50" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="H50" s="9" t="s">
+      <c r="H50" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="33">
-      <c r="A51" s="14" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>891</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="12" t="s">
         <v>759</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="12" t="s">
         <v>760</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H51" s="9" t="s">
+      <c r="H51" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="33">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="12" t="s">
         <v>761</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F52" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="9" t="s">
+      <c r="H52" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="33">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="12" t="s">
         <v>763</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="12" t="s">
         <v>764</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="12" t="s">
         <v>765</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="9" t="s">
+      <c r="H53" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="33">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="12" t="s">
         <v>710</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="12" t="s">
         <v>711</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="12" t="s">
         <v>712</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H54" s="9" t="s">
+      <c r="H54" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="33">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
+      <c r="B55" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="12" t="s">
         <v>766</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="12" t="s">
         <v>768</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="12" t="s">
         <v>767</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="F55" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="G55" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="9" t="s">
+      <c r="H55" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="33">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="12" t="s">
         <v>769</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="12" t="s">
         <v>770</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F56" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="G56" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H56" s="9" t="s">
+      <c r="H56" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="82.5">
-      <c r="A57" s="14" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="12" t="s">
         <v>772</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="12" t="s">
         <v>773</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="F57" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H57" s="9" t="s">
+      <c r="H57" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="33">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
+      <c r="B58" s="11" t="s">
         <v>776</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="12" t="s">
         <v>774</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="F58" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="13" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="115.5">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
+      <c r="B59" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="12" t="s">
         <v>779</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="F59" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="H59" s="9" t="s">
+      <c r="H59" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="33">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="12" t="s">
         <v>780</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F60" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="G60" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="33.75">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="12" t="s">
         <v>783</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="12" t="s">
         <v>785</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="12" t="s">
         <v>784</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G61" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="H61" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="33">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
+      <c r="B62" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="12" t="s">
         <v>786</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="F62" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="G62" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="49.5">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
+      <c r="B63" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="12" t="s">
         <v>788</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="12" t="s">
         <v>789</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="F63" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="G63" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="H63" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="49.5">
-      <c r="A64" s="14" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>889</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="F64" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G64" s="9" t="s">
+      <c r="G64" s="13" t="s">
         <v>608</v>
       </c>
-      <c r="H64" s="9" t="s">
+      <c r="H64" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="49.5">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="12" t="s">
         <v>792</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F65" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G65" s="9" t="s">
+      <c r="G65" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H65" s="9" t="s">
+      <c r="H65" s="13" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="33">
-      <c r="A66" s="14" t="s">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="12" t="s">
         <v>862</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="12" t="s">
         <v>794</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="12" t="s">
         <v>795</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="F66" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="G66" s="9" t="s">
+      <c r="G66" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="H66" s="9" t="s">
+      <c r="H66" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="20" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="49.5">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5" t="s">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="12" t="s">
         <v>798</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="F67" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="H67" s="9" t="s">
+      <c r="H67" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="49.5">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5" t="s">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="12" t="s">
         <v>801</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="F68" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="G68" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="H68" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="I68" s="15" t="s">
+      <c r="I68" s="20" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="33.75">
-      <c r="A69" s="4"/>
-      <c r="B69" s="5" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
+      <c r="B69" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="12" t="s">
         <v>803</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="G69" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="H69" s="13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="33">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
+      <c r="B70" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="12" t="s">
         <v>805</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="F70" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="G70" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H70" s="9" t="s">
+      <c r="H70" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="33">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="12" t="s">
         <v>806</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="12" t="s">
         <v>807</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="F71" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G71" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H71" s="13" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="33">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+      <c r="B72" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="12" t="s">
         <v>808</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="12" t="s">
         <v>809</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="F72" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G72" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H72" s="13" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="33">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+      <c r="B73" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="12" t="s">
         <v>810</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="12" t="s">
         <v>811</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="G73" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="49.5">
-      <c r="A74" s="4"/>
-      <c r="B74" s="5" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
+      <c r="B74" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="12" t="s">
         <v>812</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="12" t="s">
         <v>813</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="F74" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="49.5">
-      <c r="A75" s="4"/>
-      <c r="B75" s="5" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="12" t="s">
         <v>814</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="12" t="s">
         <v>815</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="G75" s="13" t="s">
         <v>612</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="13" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="33">
-      <c r="A76" s="14" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
         <v>868</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="12" t="s">
         <v>816</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="13" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="33">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="13" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="49.5">
-      <c r="A78" s="4"/>
-      <c r="B78" s="5" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="8" t="s">
+      <c r="D78" s="12"/>
+      <c r="E78" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="F78" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="13" t="s">
         <v>614</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I78" s="22" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="49.5">
-      <c r="A79" s="4"/>
-      <c r="B79" s="5" t="s">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
+      <c r="B79" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="12" t="s">
         <v>822</v>
       </c>
-      <c r="E79" s="8" t="s">
+      <c r="E79" s="12" t="s">
         <v>823</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="G79" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="13" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="49.5">
-      <c r="A80" s="14" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
         <v>858</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="G80" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="13" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="33.75">
-      <c r="A81" s="14" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="12" t="s">
         <v>824</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="8" t="s">
+      <c r="D81" s="12"/>
+      <c r="E81" s="12" t="s">
         <v>825</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="F81" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="13" t="s">
         <v>616</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="13" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="49.5">
-      <c r="A82" s="14" t="s">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
         <v>869</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="12" t="s">
         <v>826</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="F82" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="33">
-      <c r="A83" s="14" t="s">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
         <v>884</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="H83" s="9" t="s">
+      <c r="H83" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="49.5">
-      <c r="A84" s="14" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
         <v>865</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="12" t="s">
         <v>831</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="12" t="s">
         <v>832</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="12" t="s">
         <v>833</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="G84" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="H84" s="9" t="s">
+      <c r="H84" s="13" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="49.5">
-      <c r="A85" s="4"/>
-      <c r="B85" s="5" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="14"/>
+      <c r="B85" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="12" t="s">
         <v>834</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="12" t="s">
         <v>835</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="G85" s="13" t="s">
         <v>618</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="I85" s="15" t="s">
+      <c r="I85" s="20" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="49.5">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
+      <c r="B86" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="8" t="s">
+      <c r="D86" s="12"/>
+      <c r="E86" s="12" t="s">
         <v>836</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="F86" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="G86" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="H86" s="9" t="s">
+      <c r="H86" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="33">
-      <c r="A87" s="4"/>
-      <c r="B87" s="5" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
+      <c r="B87" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="12" t="s">
         <v>837</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="12" t="s">
         <v>838</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="F87" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G87" s="9" t="s">
+      <c r="G87" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="H87" s="9" t="s">
+      <c r="H87" s="13" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="33">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="12" t="s">
         <v>839</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="12" t="s">
         <v>841</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="F88" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G88" s="9" t="s">
+      <c r="G88" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="H88" s="9" t="s">
+      <c r="H88" s="13" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="33">
-      <c r="A89" s="4"/>
-      <c r="B89" s="5" t="s">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
+      <c r="B89" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="12" t="s">
         <v>840</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="12" t="s">
         <v>842</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="F89" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G89" s="9" t="s">
+      <c r="G89" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="H89" s="9" t="s">
+      <c r="H89" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="49.5">
-      <c r="A90" s="14" t="s">
-        <v>893</v>
-      </c>
-      <c r="B90" s="5" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="B90" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="12" t="s">
         <v>843</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="12" t="s">
         <v>844</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="F90" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G90" s="9" t="s">
+      <c r="G90" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="33">
-      <c r="A91" s="4"/>
-      <c r="B91" s="5" t="s">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
+      <c r="B91" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="12" t="s">
         <v>846</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="12" t="s">
         <v>847</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="F91" s="13" t="s">
         <v>574</v>
       </c>
-      <c r="G91" s="9" t="s">
+      <c r="G91" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="H91" s="9" t="s">
+      <c r="H91" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="33.75">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="12" t="s">
         <v>848</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="12" t="s">
         <v>850</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="13" t="s">
         <v>620</v>
       </c>
-      <c r="H92" s="9" t="s">
+      <c r="H92" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="22.5">
-      <c r="A93" s="4"/>
-      <c r="B93" s="5" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+      <c r="B93" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="9" t="s">
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H93" s="9" t="s">
+      <c r="H93" s="13" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="33">
-      <c r="A94" s="4"/>
-      <c r="B94" s="5" t="s">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+      <c r="B94" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="12" t="s">
         <v>851</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="12" t="s">
         <v>852</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="F94" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="G94" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="H94" s="9" t="s">
+      <c r="H94" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="49.5">
-      <c r="A95" s="4"/>
-      <c r="B95" s="5" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+      <c r="B95" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="E95" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="G95" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="H95" s="9" t="s">
+      <c r="H95" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="33">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+      <c r="B96" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="12" t="s">
         <v>853</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="12" t="s">
         <v>855</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="12" t="s">
         <v>854</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="F96" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G96" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="H96" s="9" t="s">
+      <c r="H96" s="13" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="22.5">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5" t="s">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+      <c r="B97" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="9" t="s">
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="G97" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="H97" s="9" t="s">
+      <c r="H97" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="33.75">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5" t="s">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+      <c r="B98" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="9" t="s">
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="G98" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="H98" s="9" t="s">
+      <c r="H98" s="13" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="22.5">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+      <c r="B99" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="9" t="s">
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="H99" s="9" t="s">
+      <c r="H99" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="22.5">
-      <c r="A100" s="4"/>
-      <c r="B100" s="5" t="s">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="14"/>
+      <c r="B100" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="9" t="s">
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="H100" s="9" t="s">
+      <c r="H100" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="22.5">
-      <c r="A101" s="4"/>
-      <c r="B101" s="5" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="14"/>
+      <c r="B101" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="9" t="s">
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="13" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I101">
-    <filterColumn colId="5"/>
-  </autoFilter>
+  <autoFilter ref="A1:I101"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
